--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC959A21-39FE-436C-BDA9-A196AECF3034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1227F6D-F179-4EB5-AE44-B640969639F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -5675,9 +5675,6 @@
     <t>Verified by derived requirement: MS-OXORULE_R5572.</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
     <t>[In Action Flavors] NS (Bitmask 0x00000001): [OP_OOF_REPLY ActionType] [The server SHOULD NOT &lt;6&gt; send the message to the message sender]The reply template MUST contain recipients (2) in this case [if the NS flag is set].</t>
   </si>
   <si>
@@ -5796,164 +5793,24 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does ignore the x bits and returns ecSuccess in this case [One or more of the x bits on the TableFlags field of RopGetRulesTable ROP Request is set to a nonzero value.]. [&lt;22&gt; Section 3.2.5.3: Exchange 2007 ignores the x bits and returns ecSuccess in this case.]</t>
-  </si>
-  <si>
-    <t>[In PidTagRuleId Property] The PidTagRuleId property ([MS-OXPROPS] section 2.945) specifies a unique identifier the messaging server generates for each rule (2) when the rule (2) is first created.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleSequence Property] The PidTagRuleSequence property ([MS-OXPROPS] section 2.958) contains a value used to determine the order in which rules (2) are evaluated and executed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleState Property] The PidTagRuleState property ([MS-OXPROPS] section 2.959) contains a value interpreted as a Bitmask combination of flags that specify the state of the rule (2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleState Property] SCL (ST_SKIP_IF_SCL_IS_SAFE, Bitmask 0x00000020): Evaluation of this rule (2) MAY be skipped if the delivered message's PidTagContentFilterSpamConfidenceLevel property ([MS-OXPROPS] section 2.643) has a value of 0xFFFFFFFF.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleName Property] The PidTagRuleName property ([MS-OXPROPS] section 2.955) specifies the name of the rule (2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleProvider Property] The PidTagRuleProvider property ([MS-OXPROPS] section 2.956) identifies the client application that owns the rule (2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleLevel Property] The PidTagRuleLevel property ([MS-OXPROPS] section 2.947) is not used.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[In PidTagRuleUserFlags Property] The server is to preserve this value [is contained by PidTagRuleUserFlags Property] if set by the client.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In PidTagRuleUserFlags Property] The PidTagRuleUserFlags property ([MS-OXPROPS] section 2.960) is an opaque property that the client sets for the exclusive use of the client.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleProviderData Property] The PidTagRuleProviderData property ([MS-OXPROPS] section 2.957) is an opaque property that the client sets for the exclusive use of the client.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleCondition Property] The PidTagRuleCondition property ([MS-OXPROPS] section 2.942) sets the condition used when evaluating the rule (2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleActions Property] The PidTagRuleActions property ([MS-OXPROPS] section 2.940) contains the set of actions (2) associated with the rule (2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleMessageName Property] The PidTagRuleMessageName property ([MS-OXPROPS] section 2.949) SHOULD be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleMessageSequence Property] The PidTagRuleMessageSequence property ([MS-OXPROPS] section 2.952) MUST be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleMessageState Property] The PidTagRuleMessageState property ([MS-OXPROPS] section 2.953) MUST be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleMessageUserFlags Property] This PidTagRuleMessageUserFlags property ([MS-OXPROPS] section 2.954) MAY be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleMessageLevel Property] The PidTagRuleMessageLevel property ([MS-OXPROPS] section 2.948) SHOULD be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2.4.1.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In PidTagRuleMessageProvider Property] The PidTagRuleMessageProvider property ([MS-OXPROPS] section 2.950) MUST be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleMessageProviderData Property] The PidTagRuleMessageProviderData property ([MS-OXPROPS] section 2.951) MAY be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagExtendedRuleMessageActions Property] The PidTagExtendedRuleMessageActions property ([MS-OXPROPS] section 2.688) MUST be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagExtendedRuleMessageCondition Property] The PidTagExtendedRuleMessageCondition property ([MS-OXPROPS] section 2.689) MUST be set on the FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagDamBackPatched property] The PidTagDamBackPatched property ([MS-OXPROPS] section 2.654) MUST be set to "FALSE" when the DAM is generated.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagDamOriginalEntryId Property] This PidTagDamOriginalEntryId property ([MS-OXPROPS] section 2.655) MUST be set to the EntryID of the delivered (target) message that the client has to process.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleProvider] The PidTagRuleProvider property ([MS-OXPROPS] section 2.956) MUST be set to the same value as the PidTagRuleProvider property on the rule or rules that have generated the DAM.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleFolderEntryId Property] The PidTagRuleFolderEntryId property ([MS-OXPROPS] section 2.944) MUST be set to the EntryID of the folder where the rule (2) that triggered the generation of this DAM is stored.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagClientActions] The PidTagClientActions property ([MS-OXPROPS] section 2.630) is a binary buffer specifying the actions (2) the client is required to take on the message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleIds] The PidTagRuleIds property ([MS-OXPROPS] section 2.946) is a buffer contains the PidTagRuleId (section 2.2.1.3.1.1) value (8 bytes) from the first rules (2) that contributed actions (2) in the PidTagClientActions property (section 2.2.6.6), and repeats that value once for each rule (2) that contributed actions (2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagDeferredActionMessageOriginalEntryId Property] The PidTagDeferredActionMessageOriginalEntryId property ([MS-OXPROPS] section 2.657) contains the server EntryID for the DAM message on the server.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleError Property] The PidTagRuleError property ([MS-OXPROPS] section 2.943) MUST be set to one of the following values [0x00000001, 0x00000002, 0x00000003, 0x00000004, 0x00000005, 0x00000006, 0x00000007, 0x00000008, 0x00000009, 0x0000000a, 0x0000000b, 0x0000000c, 0x0000000d, and 0x0000000e], indicating the cause of the error encountered during the execution of the rule (2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleActionType Property] The PidTagRuleActionType property ([MS-OXPROPS] section 2.941) specifies the action (2) of the rule (2) that failed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagRuleActionNumber Property] The PidTagRuleActionNumber property ([MS-OXPROPS] section 2.939) MUST be set to the zero-based index of the action (2) that failed. (For example, if specific to an action (2), a property value of 0x00000000 means that the first action (2) failed, 0x00000001 means that the second action (2) failed.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagHasRules Property] The PidTagHasRules property ([MS-OXPROPS] section 2.715) specifies whether rules (2) are set on a folder.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In PidTagHasDeferredActionMessages Property] The PidTagHasDeferredActionMessages property ([MS-OXPROPS] section 2.713) specifies whether a message has at least one associated DAM.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In PidTagReplyTemplateId Property] The PidTagReplyTemplateId property ([MS-OXPROPS] section 2.914) specifies the GUID for the reply template.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[PidTagRwRulesStream Property] The value of this property [PidTagRwRulesStream] is opaque to the server.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[PidTagRwRulesStream Property] The PidTagRwRulesStream property ([MS-OXPROPS] section 2.961) contains client-specific data about the Rule FAI message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Adding, Modifying or Deleting Extended Rules] The client MAY set values for the PidTagRuleMessageUserFlags (section 2.2.4.1.5) and PidTagRuleMessageProviderData ([MS-OXPROPS] section 2.951) properties for storing additional data.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In Creating a Reply Template] The following steps specify how to create a reply template: 2. Set the value of the PidTagMessageClass property ([MS-OXCMSG] section 2.2.1.3) to a string that has the prefix "IPM.Note.rules.ReplyTemplate." (for "OP_REPLY" values) or "IPM.Note.rules.OOFTemplate." (for "OP_OOF_REPLY" values).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5966,10 +5823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Processing Incoming Messages to a Folder] [Following is a description of what the server does when it executes each action (2) type, as specified in section 2.2.5.1.1, for an incoming message] "OP_MARK_AS_READ": the server MUST set the MSGFLAG_READ flag (0x00000001) in the PidTagMessageFlags property ([MS-OXPROPS] section 2.787) on the message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In Processing Out of Office Rules] The server evaluates and executes Out of Office rules only when the mailbox is in an Out of Office state, as specified in [MS-OXWOOF] section 2.2.4.2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5980,6 +5833,117 @@
   <si>
     <t>[In OP_MOVE and OP_COPY ActionData Structure] [Buffer Format for Standard Rules] FolderInThisStore (1 byte): This field MUST be set to a nonzero (TRUE) value, if the destination folder is in the user's mailbox.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In PidTagRuleId Property] The PidTagRuleId property ([MS-OXPROPS] section 2.949) specifies a unique identifier the messaging server generates for each rule (2) when the rule (2) is first created.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleState Property] The PidTagRuleState property ([MS-OXPROPS] section 2.963) contains a value interpreted as a Bitmask combination of flags that specify the state of the rule (2).</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleSequence Property] The PidTagRuleSequence property ([MS-OXPROPS] section 2.962) contains a value used to determine the order in which rules (2) are evaluated and executed.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleState Property] SCL (ST_SKIP_IF_SCL_IS_SAFE, Bitmask 0x00000020): Evaluation of this rule (2) MAY be skipped if the delivered message's PidTagContentFilterSpamConfidenceLevel property ([MS-OXPROPS] section 2.647) has a value of 0xFFFFFFFF.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleName Property] The PidTagRuleName property ([MS-OXPROPS] section 2.959) specifies the name of the rule (2).</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleProvider Property] The PidTagRuleProvider property ([MS-OXPROPS] section 2.960) identifies the client application that owns the rule (2).</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleLevel Property] The PidTagRuleLevel property ([MS-OXPROPS] section 2.951) is not used.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleUserFlags Property] The PidTagRuleUserFlags property ([MS-OXPROPS] section 2.964) is an opaque property that the client sets for the exclusive use of the client.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleProviderData Property] The PidTagRuleProviderData property ([MS-OXPROPS] section 2.961) is an opaque property that the client sets for the exclusive use of the client.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleCondition Property] The PidTagRuleCondition property ([MS-OXPROPS] section 2.946) sets the condition used when evaluating the rule (2).</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleActions Property] The PidTagRuleActions property ([MS-OXPROPS] section 2.944) contains the set of actions (2) associated with the rule (2).</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleMessageName Property] The PidTagRuleMessageName property ([MS-OXPROPS] section 2.953) SHOULD be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleMessageSequence Property] The PidTagRuleMessageSequence property ([MS-OXPROPS] section 2.956) MUST be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleMessageState Property] The PidTagRuleMessageState property ([MS-OXPROPS] section 2.957) MUST be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleMessageUserFlags Property] This PidTagRuleMessageUserFlags property ([MS-OXPROPS] section 2.958) MAY be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleMessageLevel Property] The PidTagRuleMessageLevel property ([MS-OXPROPS] section 2.952) SHOULD be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleMessageProvider Property] The PidTagRuleMessageProvider property ([MS-OXPROPS] section 2.954) MUST be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleMessageProviderData Property] The PidTagRuleMessageProviderData property ([MS-OXPROPS] section 2.955) MAY be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagExtendedRuleMessageActions Property] The PidTagExtendedRuleMessageActions property ([MS-OXPROPS] section 2.692) MUST be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagExtendedRuleMessageCondition Property] The PidTagExtendedRuleMessageCondition property ([MS-OXPROPS] section 2.693) MUST be set on the FAI message.</t>
+  </si>
+  <si>
+    <t>[In PidTagDamBackPatched property] The PidTagDamBackPatched property ([MS-OXPROPS] section 2.658) MUST be set to "FALSE" when the DAM is generated.</t>
+  </si>
+  <si>
+    <t>[In PidTagDamOriginalEntryId Property] This PidTagDamOriginalEntryId property ([MS-OXPROPS] section 2.659) MUST be set to the EntryID of the delivered (target) message that the client has to process.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleProvider] The PidTagRuleProvider property ([MS-OXPROPS] section 2.960) MUST be set to the same value as the PidTagRuleProvider property on the rule or rules that have generated the DAM.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleFolderEntryId Property] The PidTagRuleFolderEntryId property ([MS-OXPROPS] section 2.948) MUST be set to the EntryID of the folder where the rule (2) that triggered the generation of this DAM is stored.</t>
+  </si>
+  <si>
+    <t>[In PidTagClientActions] The PidTagClientActions property ([MS-OXPROPS] section 2.634) is a binary buffer specifying the actions (2) the client is required to take on the message.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleIds] The PidTagRuleIds property ([MS-OXPROPS] section 2.950) is a buffer contains the PidTagRuleId (section 2.2.1.3.1.1) value (8 bytes) from the first rules (2) that contributed actions (2) in the PidTagClientActions property (section 2.2.6.6), and repeats that value once for each rule (2) that contributed actions (2).</t>
+  </si>
+  <si>
+    <t>[In PidTagDeferredActionMessageOriginalEntryId Property] The PidTagDeferredActionMessageOriginalEntryId property ([MS-OXPROPS] section 2.661) contains the server EntryID for the DAM message on the server.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleError Property] The PidTagRuleError property ([MS-OXPROPS] section 2.947) MUST be set to one of the following values [0x00000001, 0x00000002, 0x00000003, 0x00000004, 0x00000005, 0x00000006, 0x00000007, 0x00000008, 0x00000009, 0x0000000a, 0x0000000b, 0x0000000c, 0x0000000d, and 0x0000000e], indicating the cause of the error encountered during the execution of the rule (2).</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleActionType Property] The PidTagRuleActionType property ([MS-OXPROPS] section 2.945) specifies the action (2) of the rule (2) that failed.</t>
+  </si>
+  <si>
+    <t>[In PidTagRuleActionNumber Property] The PidTagRuleActionNumber property ([MS-OXPROPS] section 2.943) MUST be set to the zero-based index of the action (2) that failed. (For example, if specific to an action (2), a property value of 0x00000000 means that the first action (2) failed, 0x00000001 means that the second action (2) failed.)</t>
+  </si>
+  <si>
+    <t>[In PidTagHasRules Property] The PidTagHasRules property ([MS-OXPROPS] section 2.719) specifies whether rules (2) are set on a folder.</t>
+  </si>
+  <si>
+    <t>[In PidTagHasDeferredActionMessages Property] The PidTagHasDeferredActionMessages property ([MS-OXPROPS] section 2.717) specifies whether a message has at least one associated DAM.</t>
+  </si>
+  <si>
+    <t>[In PidTagReplyTemplateId Property] The PidTagReplyTemplateId property ([MS-OXPROPS] section 2.918) specifies the GUID for the reply template.</t>
+  </si>
+  <si>
+    <t>[PidTagRwRulesStream Property] The PidTagRwRulesStream property ([MS-OXPROPS] section 2.965) contains client-specific data about the Rule FAI message.</t>
+  </si>
+  <si>
+    <t>[In Adding, Modifying or Deleting Extended Rules] The client MAY set values for the PidTagRuleMessageUserFlags (section 2.2.4.1.5) and PidTagRuleMessageProviderData ([MS-OXPROPS] section 2.955) properties for storing additional data.</t>
+  </si>
+  <si>
+    <t>[In Processing Incoming Messages to a Folder] [Following is a description of what the server does when it executes each action (2) type, as specified in section 2.2.5.1.1, for an incoming message] "OP_MARK_AS_READ": the server MUST set the MSGFLAG_READ flag (0x00000001) in the PidTagMessageFlags property ([MS-OXPROPS] section 2.791) on the message.</t>
+  </si>
+  <si>
+    <t>20.0</t>
   </si>
 </sst>
 </file>
@@ -5987,14 +5951,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6224,13 +6188,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6263,7 +6227,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6348,7 +6312,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
     <dxf>
@@ -7176,7 +7140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7499,24 +7463,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L819"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1501</v>
       </c>
@@ -7526,7 +7492,7 @@
       <c r="F1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>1502</v>
       </c>
@@ -7537,22 +7503,22 @@
       <c r="F2" s="25"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>1795</v>
+        <v>1881</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>43445</v>
+        <v>44308</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21">
       <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
@@ -7564,7 +7530,7 @@
       <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
@@ -7580,7 +7546,7 @@
       <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
@@ -7596,7 +7562,7 @@
       <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
@@ -7612,7 +7578,7 @@
       <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
@@ -7628,7 +7594,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
@@ -7644,7 +7610,7 @@
       <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
@@ -7660,7 +7626,7 @@
       <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -7676,7 +7642,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
@@ -7694,7 +7660,7 @@
       <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
@@ -7712,7 +7678,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="27" t="s">
         <v>7</v>
       </c>
@@ -7730,7 +7696,7 @@
       <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -7748,7 +7714,7 @@
       <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -7764,7 +7730,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
@@ -7780,7 +7746,7 @@
       <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
@@ -7797,7 +7763,7 @@
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -7814,7 +7780,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1870</v>
+        <v>1837</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>14</v>
@@ -7827,7 +7793,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="23" customFormat="1" ht="75">
       <c r="A20" s="22" t="s">
         <v>44</v>
       </c>
@@ -7852,7 +7818,7 @@
       </c>
       <c r="I20" s="24"/>
     </row>
-    <row r="21" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
@@ -7877,7 +7843,7 @@
       </c>
       <c r="I21" s="24"/>
     </row>
-    <row r="22" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A22" s="22" t="s">
         <v>46</v>
       </c>
@@ -7902,7 +7868,7 @@
       </c>
       <c r="I22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A23" s="22" t="s">
         <v>47</v>
       </c>
@@ -7927,7 +7893,7 @@
       </c>
       <c r="I23" s="24"/>
     </row>
-    <row r="24" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A24" s="22" t="s">
         <v>48</v>
       </c>
@@ -7952,7 +7918,7 @@
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A25" s="22" t="s">
         <v>49</v>
       </c>
@@ -7977,7 +7943,7 @@
       </c>
       <c r="I25" s="24"/>
     </row>
-    <row r="26" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A26" s="22" t="s">
         <v>50</v>
       </c>
@@ -8002,7 +7968,7 @@
       </c>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
@@ -8027,7 +7993,7 @@
       </c>
       <c r="I27" s="24"/>
     </row>
-    <row r="28" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A28" s="22" t="s">
         <v>52</v>
       </c>
@@ -8052,7 +8018,7 @@
       </c>
       <c r="I28" s="24"/>
     </row>
-    <row r="29" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A29" s="22" t="s">
         <v>53</v>
       </c>
@@ -8077,7 +8043,7 @@
       </c>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A30" s="22" t="s">
         <v>54</v>
       </c>
@@ -8102,7 +8068,7 @@
       </c>
       <c r="I30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A31" s="22" t="s">
         <v>55</v>
       </c>
@@ -8127,7 +8093,7 @@
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A32" s="22" t="s">
         <v>56</v>
       </c>
@@ -8152,7 +8118,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="30">
       <c r="A33" s="22" t="s">
         <v>57</v>
       </c>
@@ -8177,7 +8143,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="29" t="s">
         <v>58</v>
       </c>
@@ -8202,7 +8168,7 @@
       </c>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="60">
       <c r="A35" s="29" t="s">
         <v>59</v>
       </c>
@@ -8227,7 +8193,7 @@
       </c>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="60">
       <c r="A36" s="29" t="s">
         <v>60</v>
       </c>
@@ -8252,7 +8218,7 @@
       </c>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="45">
       <c r="A37" s="29" t="s">
         <v>61</v>
       </c>
@@ -8277,7 +8243,7 @@
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8302,7 +8268,7 @@
       </c>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8327,7 +8293,7 @@
       </c>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="90">
       <c r="A40" s="29" t="s">
         <v>64</v>
       </c>
@@ -8352,7 +8318,7 @@
       </c>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="60">
       <c r="A41" s="29" t="s">
         <v>65</v>
       </c>
@@ -8377,7 +8343,7 @@
       </c>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="29" t="s">
         <v>66</v>
       </c>
@@ -8402,7 +8368,7 @@
       </c>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="29" t="s">
         <v>67</v>
       </c>
@@ -8427,7 +8393,7 @@
       </c>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="29" t="s">
         <v>68</v>
       </c>
@@ -8452,7 +8418,7 @@
       </c>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="29" t="s">
         <v>69</v>
       </c>
@@ -8477,7 +8443,7 @@
       </c>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="60">
       <c r="A46" s="29" t="s">
         <v>70</v>
       </c>
@@ -8502,7 +8468,7 @@
       </c>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="60">
       <c r="A47" s="29" t="s">
         <v>71</v>
       </c>
@@ -8527,7 +8493,7 @@
       </c>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="29" t="s">
         <v>72</v>
       </c>
@@ -8554,7 +8520,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="29" t="s">
         <v>73</v>
       </c>
@@ -8579,7 +8545,7 @@
       </c>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="29" t="s">
         <v>74</v>
       </c>
@@ -8604,7 +8570,7 @@
       </c>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="29" t="s">
         <v>75</v>
       </c>
@@ -8629,7 +8595,7 @@
       </c>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="29" t="s">
         <v>76</v>
       </c>
@@ -8654,7 +8620,7 @@
       </c>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="29" t="s">
         <v>77</v>
       </c>
@@ -8679,7 +8645,7 @@
       </c>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45">
       <c r="A54" s="29" t="s">
         <v>78</v>
       </c>
@@ -8704,7 +8670,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="29" t="s">
         <v>79</v>
       </c>
@@ -8729,7 +8695,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45">
       <c r="A56" s="29" t="s">
         <v>80</v>
       </c>
@@ -8754,7 +8720,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="29" t="s">
         <v>81</v>
       </c>
@@ -8779,7 +8745,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="29" t="s">
         <v>82</v>
       </c>
@@ -8804,7 +8770,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="29" t="s">
         <v>83</v>
       </c>
@@ -8829,7 +8795,7 @@
       </c>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="29" t="s">
         <v>84</v>
       </c>
@@ -8854,7 +8820,7 @@
       </c>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="45">
       <c r="A61" s="29" t="s">
         <v>85</v>
       </c>
@@ -8879,7 +8845,7 @@
       </c>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="29" t="s">
         <v>86</v>
       </c>
@@ -8904,7 +8870,7 @@
       </c>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="45">
       <c r="A63" s="29" t="s">
         <v>87</v>
       </c>
@@ -8929,7 +8895,7 @@
       </c>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="29" t="s">
         <v>88</v>
       </c>
@@ -8954,7 +8920,7 @@
       </c>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="45">
       <c r="A65" s="29" t="s">
         <v>89</v>
       </c>
@@ -8979,7 +8945,7 @@
       </c>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="29" t="s">
         <v>90</v>
       </c>
@@ -9004,7 +8970,7 @@
       </c>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="75">
       <c r="A67" s="29" t="s">
         <v>91</v>
       </c>
@@ -9029,7 +8995,7 @@
       </c>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45">
       <c r="A68" s="29" t="s">
         <v>92</v>
       </c>
@@ -9054,7 +9020,7 @@
       </c>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="29" t="s">
         <v>93</v>
       </c>
@@ -9079,7 +9045,7 @@
       </c>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45">
       <c r="A70" s="29" t="s">
         <v>94</v>
       </c>
@@ -9087,7 +9053,7 @@
         <v>808</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>1836</v>
+        <v>1845</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
@@ -9104,7 +9070,7 @@
       </c>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="29" t="s">
         <v>95</v>
       </c>
@@ -9129,7 +9095,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="29" t="s">
         <v>96</v>
       </c>
@@ -9154,7 +9120,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="29" t="s">
         <v>97</v>
       </c>
@@ -9179,7 +9145,7 @@
       </c>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="45">
       <c r="A74" s="29" t="s">
         <v>98</v>
       </c>
@@ -9187,7 +9153,7 @@
         <v>809</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>1837</v>
+        <v>1847</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29" t="s">
@@ -9204,7 +9170,7 @@
       </c>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="45">
       <c r="A75" s="29" t="s">
         <v>99</v>
       </c>
@@ -9231,7 +9197,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="75">
       <c r="A76" s="29" t="s">
         <v>100</v>
       </c>
@@ -9256,7 +9222,7 @@
       </c>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="29" t="s">
         <v>101</v>
       </c>
@@ -9281,7 +9247,7 @@
       </c>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="29" t="s">
         <v>102</v>
       </c>
@@ -9289,7 +9255,7 @@
         <v>810</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29" t="s">
@@ -9306,7 +9272,7 @@
       </c>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="45">
       <c r="A79" s="29" t="s">
         <v>103</v>
       </c>
@@ -9331,7 +9297,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="29" t="s">
         <v>104</v>
       </c>
@@ -9356,7 +9322,7 @@
       </c>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="45">
       <c r="A81" s="29" t="s">
         <v>105</v>
       </c>
@@ -9381,7 +9347,7 @@
       </c>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="29" t="s">
         <v>106</v>
       </c>
@@ -9406,7 +9372,7 @@
       </c>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="29" t="s">
         <v>107</v>
       </c>
@@ -9431,7 +9397,7 @@
       </c>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="45">
       <c r="A84" s="29" t="s">
         <v>108</v>
       </c>
@@ -9458,7 +9424,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30">
       <c r="A85" s="29" t="s">
         <v>109</v>
       </c>
@@ -9485,7 +9451,7 @@
       </c>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="45">
       <c r="A86" s="29" t="s">
         <v>110</v>
       </c>
@@ -9510,7 +9476,7 @@
       </c>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="29" t="s">
         <v>111</v>
       </c>
@@ -9535,7 +9501,7 @@
       </c>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30">
       <c r="A88" s="29" t="s">
         <v>112</v>
       </c>
@@ -9560,7 +9526,7 @@
       </c>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="29" t="s">
         <v>113</v>
       </c>
@@ -9585,7 +9551,7 @@
       </c>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="29" t="s">
         <v>114</v>
       </c>
@@ -9610,7 +9576,7 @@
       </c>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="45">
       <c r="A91" s="29" t="s">
         <v>115</v>
       </c>
@@ -9635,7 +9601,7 @@
       </c>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="45">
       <c r="A92" s="29" t="s">
         <v>116</v>
       </c>
@@ -9660,7 +9626,7 @@
       </c>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30">
       <c r="A93" s="29" t="s">
         <v>117</v>
       </c>
@@ -9685,7 +9651,7 @@
       </c>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="60">
       <c r="A94" s="22" t="s">
         <v>118</v>
       </c>
@@ -9693,7 +9659,7 @@
         <v>810</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1839</v>
+        <v>1848</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29" t="s">
@@ -9712,7 +9678,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="60">
       <c r="A95" s="29" t="s">
         <v>119</v>
       </c>
@@ -9737,7 +9703,7 @@
       </c>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="29" t="s">
         <v>120</v>
       </c>
@@ -9762,7 +9728,7 @@
       </c>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="45">
       <c r="A97" s="29" t="s">
         <v>121</v>
       </c>
@@ -9789,7 +9755,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="45">
       <c r="A98" s="29" t="s">
         <v>122</v>
       </c>
@@ -9816,7 +9782,7 @@
       </c>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="29" t="s">
         <v>123</v>
       </c>
@@ -9841,7 +9807,7 @@
       </c>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="29" t="s">
         <v>124</v>
       </c>
@@ -9866,7 +9832,7 @@
       </c>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="29" t="s">
         <v>125</v>
       </c>
@@ -9891,7 +9857,7 @@
       </c>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="75">
       <c r="A102" s="29" t="s">
         <v>126</v>
       </c>
@@ -9918,7 +9884,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="29" t="s">
         <v>127</v>
       </c>
@@ -9943,7 +9909,7 @@
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="29" t="s">
         <v>128</v>
       </c>
@@ -9951,7 +9917,7 @@
         <v>811</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1840</v>
+        <v>1849</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29" t="s">
@@ -9968,7 +9934,7 @@
       </c>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="29" t="s">
         <v>129</v>
       </c>
@@ -9993,7 +9959,7 @@
       </c>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45">
       <c r="A106" s="29" t="s">
         <v>130</v>
       </c>
@@ -10001,7 +9967,7 @@
         <v>812</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1841</v>
+        <v>1850</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29" t="s">
@@ -10018,7 +9984,7 @@
       </c>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="29" t="s">
         <v>131</v>
       </c>
@@ -10043,7 +10009,7 @@
       </c>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="29" t="s">
         <v>132</v>
       </c>
@@ -10068,7 +10034,7 @@
       </c>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="29" t="s">
         <v>133</v>
       </c>
@@ -10093,7 +10059,7 @@
       </c>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="29" t="s">
         <v>134</v>
       </c>
@@ -10118,7 +10084,7 @@
       </c>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="45">
       <c r="A111" s="29" t="s">
         <v>135</v>
       </c>
@@ -10143,7 +10109,7 @@
       </c>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30">
       <c r="A112" s="29" t="s">
         <v>136</v>
       </c>
@@ -10168,7 +10134,7 @@
       </c>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="29" t="s">
         <v>137</v>
       </c>
@@ -10176,7 +10142,7 @@
         <v>813</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1842</v>
+        <v>1851</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="29" t="s">
@@ -10193,7 +10159,7 @@
       </c>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="29" t="s">
         <v>138</v>
       </c>
@@ -10218,7 +10184,7 @@
       </c>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="29" t="s">
         <v>139</v>
       </c>
@@ -10243,7 +10209,7 @@
       </c>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="45">
       <c r="A116" s="29" t="s">
         <v>140</v>
       </c>
@@ -10251,7 +10217,7 @@
         <v>814</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="29" t="s">
@@ -10268,7 +10234,7 @@
       </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="29" t="s">
         <v>141</v>
       </c>
@@ -10276,7 +10242,7 @@
         <v>814</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="29" t="s">
@@ -10293,7 +10259,7 @@
       </c>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="45">
       <c r="A118" s="29" t="s">
         <v>142</v>
       </c>
@@ -10318,7 +10284,7 @@
       </c>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="29" t="s">
         <v>143</v>
       </c>
@@ -10343,7 +10309,7 @@
       </c>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" s="29" t="s">
         <v>144</v>
       </c>
@@ -10351,7 +10317,7 @@
         <v>815</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="29" t="s">
@@ -10368,7 +10334,7 @@
       </c>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="29" t="s">
         <v>145</v>
       </c>
@@ -10393,7 +10359,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="45">
       <c r="A122" s="29" t="s">
         <v>146</v>
       </c>
@@ -10418,7 +10384,7 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="29" t="s">
         <v>147</v>
       </c>
@@ -10443,7 +10409,7 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="45">
       <c r="A124" s="29" t="s">
         <v>148</v>
       </c>
@@ -10451,7 +10417,7 @@
         <v>816</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="29" t="s">
@@ -10468,7 +10434,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="29" t="s">
         <v>149</v>
       </c>
@@ -10493,7 +10459,7 @@
       </c>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="29" t="s">
         <v>150</v>
       </c>
@@ -10518,7 +10484,7 @@
       </c>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="45">
       <c r="A127" s="29" t="s">
         <v>151</v>
       </c>
@@ -10526,7 +10492,7 @@
         <v>817</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29" t="s">
@@ -10543,7 +10509,7 @@
       </c>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="29" t="s">
         <v>152</v>
       </c>
@@ -10568,7 +10534,7 @@
       </c>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="60">
       <c r="A129" s="29" t="s">
         <v>153</v>
       </c>
@@ -10593,7 +10559,7 @@
       </c>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="29" t="s">
         <v>154</v>
       </c>
@@ -10618,7 +10584,7 @@
       </c>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="29" t="s">
         <v>155</v>
       </c>
@@ -10643,7 +10609,7 @@
       </c>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="29" t="s">
         <v>156</v>
       </c>
@@ -10668,7 +10634,7 @@
       </c>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="45">
       <c r="A133" s="29" t="s">
         <v>157</v>
       </c>
@@ -10693,7 +10659,7 @@
       </c>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="60">
       <c r="A134" s="29" t="s">
         <v>158</v>
       </c>
@@ -10718,7 +10684,7 @@
       </c>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="60">
       <c r="A135" s="29" t="s">
         <v>159</v>
       </c>
@@ -10743,7 +10709,7 @@
       </c>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="29" t="s">
         <v>160</v>
       </c>
@@ -10768,7 +10734,7 @@
       </c>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="45">
       <c r="A137" s="29" t="s">
         <v>161</v>
       </c>
@@ -10793,7 +10759,7 @@
       </c>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="29" t="s">
         <v>162</v>
       </c>
@@ -10818,7 +10784,7 @@
       </c>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="60">
       <c r="A139" s="29" t="s">
         <v>163</v>
       </c>
@@ -10845,7 +10811,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="60">
       <c r="A140" s="29" t="s">
         <v>164</v>
       </c>
@@ -10870,7 +10836,7 @@
       </c>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="45">
       <c r="A141" s="29" t="s">
         <v>165</v>
       </c>
@@ -10897,7 +10863,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="45">
       <c r="A142" s="29" t="s">
         <v>166</v>
       </c>
@@ -10922,7 +10888,7 @@
       </c>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="29" t="s">
         <v>167</v>
       </c>
@@ -10949,7 +10915,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="29" t="s">
         <v>168</v>
       </c>
@@ -10974,7 +10940,7 @@
       </c>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="29" t="s">
         <v>169</v>
       </c>
@@ -10999,7 +10965,7 @@
       </c>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="45">
       <c r="A146" s="29" t="s">
         <v>170</v>
       </c>
@@ -11024,7 +10990,7 @@
       </c>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="60">
       <c r="A147" s="29" t="s">
         <v>171</v>
       </c>
@@ -11049,7 +11015,7 @@
       </c>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="45">
       <c r="A148" s="29" t="s">
         <v>172</v>
       </c>
@@ -11074,7 +11040,7 @@
       </c>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="90">
       <c r="A149" s="29" t="s">
         <v>173</v>
       </c>
@@ -11099,7 +11065,7 @@
       </c>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="29" t="s">
         <v>174</v>
       </c>
@@ -11124,7 +11090,7 @@
       </c>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="45">
       <c r="A151" s="29" t="s">
         <v>175</v>
       </c>
@@ -11149,7 +11115,7 @@
       </c>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="45">
       <c r="A152" s="29" t="s">
         <v>176</v>
       </c>
@@ -11174,7 +11140,7 @@
       </c>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="45">
       <c r="A153" s="29" t="s">
         <v>177</v>
       </c>
@@ -11199,7 +11165,7 @@
       </c>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="45">
       <c r="A154" s="29" t="s">
         <v>178</v>
       </c>
@@ -11224,7 +11190,7 @@
       </c>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="45">
       <c r="A155" s="29" t="s">
         <v>179</v>
       </c>
@@ -11249,7 +11215,7 @@
       </c>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="45">
       <c r="A156" s="29" t="s">
         <v>180</v>
       </c>
@@ -11274,7 +11240,7 @@
       </c>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="60">
       <c r="A157" s="29" t="s">
         <v>181</v>
       </c>
@@ -11299,7 +11265,7 @@
       </c>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="45">
       <c r="A158" s="29" t="s">
         <v>182</v>
       </c>
@@ -11326,7 +11292,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="60">
       <c r="A159" s="29" t="s">
         <v>183</v>
       </c>
@@ -11351,7 +11317,7 @@
       </c>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="29" t="s">
         <v>184</v>
       </c>
@@ -11378,7 +11344,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="29" t="s">
         <v>185</v>
       </c>
@@ -11403,7 +11369,7 @@
       </c>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="45">
       <c r="A162" s="29" t="s">
         <v>186</v>
       </c>
@@ -11428,7 +11394,7 @@
       </c>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="75">
       <c r="A163" s="29" t="s">
         <v>187</v>
       </c>
@@ -11453,7 +11419,7 @@
       </c>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="29" t="s">
         <v>188</v>
       </c>
@@ -11478,7 +11444,7 @@
       </c>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="60">
       <c r="A165" s="29" t="s">
         <v>189</v>
       </c>
@@ -11503,7 +11469,7 @@
       </c>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="60">
       <c r="A166" s="29" t="s">
         <v>190</v>
       </c>
@@ -11530,7 +11496,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="45">
       <c r="A167" s="29" t="s">
         <v>191</v>
       </c>
@@ -11555,7 +11521,7 @@
       </c>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45">
       <c r="A168" s="29" t="s">
         <v>192</v>
       </c>
@@ -11580,7 +11546,7 @@
       </c>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45">
       <c r="A169" s="29" t="s">
         <v>193</v>
       </c>
@@ -11605,7 +11571,7 @@
       </c>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="90">
       <c r="A170" s="29" t="s">
         <v>194</v>
       </c>
@@ -11630,7 +11596,7 @@
       </c>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="120">
       <c r="A171" s="29" t="s">
         <v>195</v>
       </c>
@@ -11655,7 +11621,7 @@
       </c>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="29" t="s">
         <v>196</v>
       </c>
@@ -11680,7 +11646,7 @@
       </c>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="29" t="s">
         <v>197</v>
       </c>
@@ -11705,7 +11671,7 @@
       </c>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30">
       <c r="A174" s="29" t="s">
         <v>198</v>
       </c>
@@ -11730,7 +11696,7 @@
       </c>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="45">
       <c r="A175" s="29" t="s">
         <v>199</v>
       </c>
@@ -11738,7 +11704,7 @@
         <v>825</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="29" t="s">
@@ -11757,7 +11723,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="45">
       <c r="A176" s="29" t="s">
         <v>200</v>
       </c>
@@ -11782,7 +11748,7 @@
       </c>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="29" t="s">
         <v>201</v>
       </c>
@@ -11807,7 +11773,7 @@
       </c>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="30">
       <c r="A178" s="29" t="s">
         <v>202</v>
       </c>
@@ -11832,7 +11798,7 @@
       </c>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="45">
       <c r="A179" s="29" t="s">
         <v>203</v>
       </c>
@@ -11857,7 +11823,7 @@
       </c>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="29" t="s">
         <v>204</v>
       </c>
@@ -11882,7 +11848,7 @@
       </c>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="45">
       <c r="A181" s="29" t="s">
         <v>205</v>
       </c>
@@ -11890,7 +11856,7 @@
         <v>827</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="29" t="s">
@@ -11907,7 +11873,7 @@
       </c>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="60">
       <c r="A182" s="29" t="s">
         <v>206</v>
       </c>
@@ -11932,7 +11898,7 @@
       </c>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="29" t="s">
         <v>207</v>
       </c>
@@ -11957,7 +11923,7 @@
       </c>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="45">
       <c r="A184" s="29" t="s">
         <v>208</v>
       </c>
@@ -11965,7 +11931,7 @@
         <v>828</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="29" t="s">
@@ -11982,7 +11948,7 @@
       </c>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="60">
       <c r="A185" s="29" t="s">
         <v>209</v>
       </c>
@@ -12009,7 +11975,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="60">
       <c r="A186" s="29" t="s">
         <v>210</v>
       </c>
@@ -12034,7 +12000,7 @@
       </c>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="75">
       <c r="A187" s="29" t="s">
         <v>211</v>
       </c>
@@ -12061,7 +12027,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="75">
       <c r="A188" s="29" t="s">
         <v>212</v>
       </c>
@@ -12088,7 +12054,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="75">
       <c r="A189" s="29" t="s">
         <v>213</v>
       </c>
@@ -12115,7 +12081,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="90">
       <c r="A190" s="29" t="s">
         <v>214</v>
       </c>
@@ -12142,7 +12108,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="75">
       <c r="A191" s="29" t="s">
         <v>215</v>
       </c>
@@ -12169,7 +12135,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="45">
       <c r="A192" s="29" t="s">
         <v>216</v>
       </c>
@@ -12194,7 +12160,7 @@
       </c>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="75">
       <c r="A193" s="29" t="s">
         <v>217</v>
       </c>
@@ -12221,7 +12187,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="30">
       <c r="A194" s="29" t="s">
         <v>218</v>
       </c>
@@ -12246,7 +12212,7 @@
       </c>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="45">
       <c r="A195" s="29" t="s">
         <v>219</v>
       </c>
@@ -12254,7 +12220,7 @@
         <v>829</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -12273,7 +12239,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="60">
       <c r="A196" s="29" t="s">
         <v>220</v>
       </c>
@@ -12298,7 +12264,7 @@
       </c>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="29" t="s">
         <v>221</v>
       </c>
@@ -12323,7 +12289,7 @@
       </c>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="45">
       <c r="A198" s="29" t="s">
         <v>222</v>
       </c>
@@ -12331,7 +12297,7 @@
         <v>830</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -12350,7 +12316,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="45">
       <c r="A199" s="29" t="s">
         <v>223</v>
       </c>
@@ -12375,7 +12341,7 @@
       </c>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="29" t="s">
         <v>224</v>
       </c>
@@ -12400,15 +12366,15 @@
       </c>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="45">
       <c r="A201" s="29" t="s">
         <v>225</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -12425,7 +12391,7 @@
       </c>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="60">
       <c r="A202" s="29" t="s">
         <v>226</v>
       </c>
@@ -12450,7 +12416,7 @@
       </c>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="29" t="s">
         <v>227</v>
       </c>
@@ -12475,7 +12441,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="45">
       <c r="A204" s="29" t="s">
         <v>228</v>
       </c>
@@ -12483,7 +12449,7 @@
         <v>832</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1855</v>
+        <v>1862</v>
       </c>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
@@ -12502,7 +12468,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="75">
       <c r="A205" s="29" t="s">
         <v>229</v>
       </c>
@@ -12527,7 +12493,7 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="30">
       <c r="A206" s="29" t="s">
         <v>230</v>
       </c>
@@ -12552,7 +12518,7 @@
       </c>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="45">
       <c r="A207" s="29" t="s">
         <v>231</v>
       </c>
@@ -12560,7 +12526,7 @@
         <v>833</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1856</v>
+        <v>1863</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
@@ -12577,7 +12543,7 @@
       </c>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="90">
       <c r="A208" s="29" t="s">
         <v>232</v>
       </c>
@@ -12604,7 +12570,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="60">
       <c r="A209" s="29" t="s">
         <v>233</v>
       </c>
@@ -12631,7 +12597,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="29" t="s">
         <v>234</v>
       </c>
@@ -12656,7 +12622,7 @@
       </c>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="75">
       <c r="A211" s="29" t="s">
         <v>235</v>
       </c>
@@ -12683,7 +12649,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="29" t="s">
         <v>236</v>
       </c>
@@ -12710,7 +12676,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="29" t="s">
         <v>237</v>
       </c>
@@ -12735,7 +12701,7 @@
       </c>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="75">
       <c r="A214" s="29" t="s">
         <v>238</v>
       </c>
@@ -12762,7 +12728,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="45">
       <c r="A215" s="29" t="s">
         <v>239</v>
       </c>
@@ -12787,7 +12753,7 @@
       </c>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="29" t="s">
         <v>240</v>
       </c>
@@ -12812,7 +12778,7 @@
       </c>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="45">
       <c r="A217" s="29" t="s">
         <v>241</v>
       </c>
@@ -12820,7 +12786,7 @@
         <v>834</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="29" t="s">
@@ -12837,7 +12803,7 @@
       </c>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="75">
       <c r="A218" s="29" t="s">
         <v>242</v>
       </c>
@@ -12864,7 +12830,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="75">
       <c r="A219" s="29" t="s">
         <v>243</v>
       </c>
@@ -12891,7 +12857,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="45">
       <c r="A220" s="29" t="s">
         <v>244</v>
       </c>
@@ -12916,7 +12882,7 @@
       </c>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="75">
       <c r="A221" s="29" t="s">
         <v>245</v>
       </c>
@@ -12941,7 +12907,7 @@
       </c>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="45">
       <c r="A222" s="29" t="s">
         <v>246</v>
       </c>
@@ -12966,7 +12932,7 @@
       </c>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="75">
       <c r="A223" s="29" t="s">
         <v>247</v>
       </c>
@@ -12993,7 +12959,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="29" t="s">
         <v>248</v>
       </c>
@@ -13018,7 +12984,7 @@
       </c>
       <c r="I224" s="31"/>
     </row>
-    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="45">
       <c r="A225" s="29" t="s">
         <v>249</v>
       </c>
@@ -13043,7 +13009,7 @@
       </c>
       <c r="I225" s="31"/>
     </row>
-    <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="75">
       <c r="A226" s="29" t="s">
         <v>250</v>
       </c>
@@ -13070,7 +13036,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="60">
       <c r="A227" s="22" t="s">
         <v>1527</v>
       </c>
@@ -13095,7 +13061,7 @@
       </c>
       <c r="I227" s="31"/>
     </row>
-    <row r="228" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="45">
       <c r="A228" s="29" t="s">
         <v>251</v>
       </c>
@@ -13120,7 +13086,7 @@
       </c>
       <c r="I228" s="31"/>
     </row>
-    <row r="229" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="45">
       <c r="A229" s="29" t="s">
         <v>252</v>
       </c>
@@ -13145,7 +13111,7 @@
       </c>
       <c r="I229" s="31"/>
     </row>
-    <row r="230" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="45">
       <c r="A230" s="29" t="s">
         <v>253</v>
       </c>
@@ -13170,7 +13136,7 @@
       </c>
       <c r="I230" s="31"/>
     </row>
-    <row r="231" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="60">
       <c r="A231" s="29" t="s">
         <v>254</v>
       </c>
@@ -13195,7 +13161,7 @@
       </c>
       <c r="I231" s="31"/>
     </row>
-    <row r="232" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="45">
       <c r="A232" s="29" t="s">
         <v>255</v>
       </c>
@@ -13220,7 +13186,7 @@
       </c>
       <c r="I232" s="31"/>
     </row>
-    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="30">
       <c r="A233" s="29" t="s">
         <v>1513</v>
       </c>
@@ -13245,7 +13211,7 @@
       </c>
       <c r="I233" s="31"/>
     </row>
-    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="45">
       <c r="A234" s="22" t="s">
         <v>1510</v>
       </c>
@@ -13271,7 +13237,7 @@
       <c r="I234" s="20"/>
       <c r="J234" s="20"/>
     </row>
-    <row r="235" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="45">
       <c r="A235" s="29" t="s">
         <v>256</v>
       </c>
@@ -13296,7 +13262,7 @@
       </c>
       <c r="I235" s="31"/>
     </row>
-    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="45">
       <c r="A236" s="29" t="s">
         <v>257</v>
       </c>
@@ -13321,7 +13287,7 @@
       </c>
       <c r="I236" s="31"/>
     </row>
-    <row r="237" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="30">
       <c r="A237" s="29" t="s">
         <v>258</v>
       </c>
@@ -13346,7 +13312,7 @@
       </c>
       <c r="I237" s="31"/>
     </row>
-    <row r="238" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="30">
       <c r="A238" s="29" t="s">
         <v>259</v>
       </c>
@@ -13371,7 +13337,7 @@
       </c>
       <c r="I238" s="31"/>
     </row>
-    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="45">
       <c r="A239" s="22" t="s">
         <v>1522</v>
       </c>
@@ -13397,7 +13363,7 @@
       <c r="I239" s="20"/>
       <c r="J239" s="20"/>
     </row>
-    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="30">
       <c r="A240" s="29" t="s">
         <v>260</v>
       </c>
@@ -13422,7 +13388,7 @@
       </c>
       <c r="I240" s="31"/>
     </row>
-    <row r="241" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="45">
       <c r="A241" s="29" t="s">
         <v>261</v>
       </c>
@@ -13449,7 +13415,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="75">
       <c r="A242" s="29" t="s">
         <v>262</v>
       </c>
@@ -13476,7 +13442,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="60">
       <c r="A243" s="29" t="s">
         <v>263</v>
       </c>
@@ -13503,7 +13469,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="75">
       <c r="A244" s="29" t="s">
         <v>264</v>
       </c>
@@ -13530,7 +13496,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="29" t="s">
         <v>265</v>
       </c>
@@ -13555,7 +13521,7 @@
       </c>
       <c r="I245" s="31"/>
     </row>
-    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="30">
       <c r="A246" s="29" t="s">
         <v>266</v>
       </c>
@@ -13580,7 +13546,7 @@
       </c>
       <c r="I246" s="31"/>
     </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="30">
       <c r="A247" s="29" t="s">
         <v>267</v>
       </c>
@@ -13605,7 +13571,7 @@
       </c>
       <c r="I247" s="31"/>
     </row>
-    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="45">
       <c r="A248" s="29" t="s">
         <v>268</v>
       </c>
@@ -13630,7 +13596,7 @@
       </c>
       <c r="I248" s="31"/>
     </row>
-    <row r="249" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="75">
       <c r="A249" s="29" t="s">
         <v>269</v>
       </c>
@@ -13657,7 +13623,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="75">
       <c r="A250" s="29" t="s">
         <v>270</v>
       </c>
@@ -13684,7 +13650,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="45">
       <c r="A251" s="29" t="s">
         <v>271</v>
       </c>
@@ -13709,7 +13675,7 @@
       </c>
       <c r="I251" s="31"/>
     </row>
-    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="30">
       <c r="A252" s="29" t="s">
         <v>272</v>
       </c>
@@ -13734,7 +13700,7 @@
       </c>
       <c r="I252" s="31"/>
     </row>
-    <row r="253" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="75">
       <c r="A253" s="29" t="s">
         <v>273</v>
       </c>
@@ -13761,7 +13727,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="60">
       <c r="A254" s="29" t="s">
         <v>274</v>
       </c>
@@ -13786,7 +13752,7 @@
       </c>
       <c r="I254" s="31"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="29" t="s">
         <v>275</v>
       </c>
@@ -13811,7 +13777,7 @@
       </c>
       <c r="I255" s="31"/>
     </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="22" t="s">
         <v>1532</v>
       </c>
@@ -13836,7 +13802,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="29" t="s">
         <v>276</v>
       </c>
@@ -13861,7 +13827,7 @@
       </c>
       <c r="I257" s="31"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="29" t="s">
         <v>277</v>
       </c>
@@ -13886,7 +13852,7 @@
       </c>
       <c r="I258" s="31"/>
     </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="22" t="s">
         <v>1533</v>
       </c>
@@ -13911,7 +13877,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="29" t="s">
         <v>278</v>
       </c>
@@ -13936,7 +13902,7 @@
       </c>
       <c r="I260" s="31"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="29" t="s">
         <v>279</v>
       </c>
@@ -13961,7 +13927,7 @@
       </c>
       <c r="I261" s="31"/>
     </row>
-    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="29" t="s">
         <v>280</v>
       </c>
@@ -13986,7 +13952,7 @@
       </c>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="29" t="s">
         <v>281</v>
       </c>
@@ -14011,7 +13977,7 @@
       </c>
       <c r="I263" s="31"/>
     </row>
-    <row r="264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="30">
       <c r="A264" s="29" t="s">
         <v>282</v>
       </c>
@@ -14036,7 +14002,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="30">
       <c r="A265" s="29" t="s">
         <v>283</v>
       </c>
@@ -14061,7 +14027,7 @@
       </c>
       <c r="I265" s="31"/>
     </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="45">
       <c r="A266" s="29" t="s">
         <v>284</v>
       </c>
@@ -14086,7 +14052,7 @@
       </c>
       <c r="I266" s="31"/>
     </row>
-    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="29" t="s">
         <v>285</v>
       </c>
@@ -14111,7 +14077,7 @@
       </c>
       <c r="I267" s="31"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="29" t="s">
         <v>286</v>
       </c>
@@ -14136,7 +14102,7 @@
       </c>
       <c r="I268" s="31"/>
     </row>
-    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="29" t="s">
         <v>287</v>
       </c>
@@ -14161,7 +14127,7 @@
       </c>
       <c r="I269" s="31"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="29" t="s">
         <v>288</v>
       </c>
@@ -14186,7 +14152,7 @@
       </c>
       <c r="I270" s="31"/>
     </row>
-    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="29" t="s">
         <v>289</v>
       </c>
@@ -14213,7 +14179,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="29" t="s">
         <v>290</v>
       </c>
@@ -14238,7 +14204,7 @@
       </c>
       <c r="I272" s="31"/>
     </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="29" t="s">
         <v>291</v>
       </c>
@@ -14265,7 +14231,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="29" t="s">
         <v>292</v>
       </c>
@@ -14290,7 +14256,7 @@
       </c>
       <c r="I274" s="31"/>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="29" t="s">
         <v>293</v>
       </c>
@@ -14315,7 +14281,7 @@
       </c>
       <c r="I275" s="31"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" s="29" t="s">
         <v>294</v>
       </c>
@@ -14340,7 +14306,7 @@
       </c>
       <c r="I276" s="31"/>
     </row>
-    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="29" t="s">
         <v>295</v>
       </c>
@@ -14367,7 +14333,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="29" t="s">
         <v>296</v>
       </c>
@@ -14392,7 +14358,7 @@
       </c>
       <c r="I278" s="31"/>
     </row>
-    <row r="279" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="60">
       <c r="A279" s="29" t="s">
         <v>297</v>
       </c>
@@ -14419,7 +14385,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="75">
       <c r="A280" s="29" t="s">
         <v>298</v>
       </c>
@@ -14446,7 +14412,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="75">
       <c r="A281" s="29" t="s">
         <v>299</v>
       </c>
@@ -14473,7 +14439,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282" s="29" t="s">
         <v>300</v>
       </c>
@@ -14498,7 +14464,7 @@
       </c>
       <c r="I282" s="31"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283" s="29" t="s">
         <v>301</v>
       </c>
@@ -14523,7 +14489,7 @@
       </c>
       <c r="I283" s="31"/>
     </row>
-    <row r="284" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="30">
       <c r="A284" s="29" t="s">
         <v>302</v>
       </c>
@@ -14548,7 +14514,7 @@
       </c>
       <c r="I284" s="31"/>
     </row>
-    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="29" t="s">
         <v>303</v>
       </c>
@@ -14573,7 +14539,7 @@
       </c>
       <c r="I285" s="31"/>
     </row>
-    <row r="286" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="75">
       <c r="A286" s="29" t="s">
         <v>304</v>
       </c>
@@ -14600,7 +14566,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="75">
       <c r="A287" s="29" t="s">
         <v>305</v>
       </c>
@@ -14627,7 +14593,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="45">
       <c r="A288" s="29" t="s">
         <v>306</v>
       </c>
@@ -14652,7 +14618,7 @@
       </c>
       <c r="I288" s="31"/>
     </row>
-    <row r="289" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="45">
       <c r="A289" s="29" t="s">
         <v>307</v>
       </c>
@@ -14677,7 +14643,7 @@
       </c>
       <c r="I289" s="31"/>
     </row>
-    <row r="290" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="60">
       <c r="A290" s="29" t="s">
         <v>308</v>
       </c>
@@ -14702,7 +14668,7 @@
       </c>
       <c r="I290" s="31"/>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="29" t="s">
         <v>309</v>
       </c>
@@ -14727,7 +14693,7 @@
       </c>
       <c r="I291" s="31"/>
     </row>
-    <row r="292" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="29" t="s">
         <v>310</v>
       </c>
@@ -14752,7 +14718,7 @@
       </c>
       <c r="I292" s="31"/>
     </row>
-    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30">
       <c r="A293" s="29" t="s">
         <v>311</v>
       </c>
@@ -14777,7 +14743,7 @@
       </c>
       <c r="I293" s="31"/>
     </row>
-    <row r="294" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="29" t="s">
         <v>312</v>
       </c>
@@ -14804,7 +14770,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="29" t="s">
         <v>313</v>
       </c>
@@ -14829,7 +14795,7 @@
       </c>
       <c r="I295" s="31"/>
     </row>
-    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="30">
       <c r="A296" s="29" t="s">
         <v>314</v>
       </c>
@@ -14854,7 +14820,7 @@
       </c>
       <c r="I296" s="31"/>
     </row>
-    <row r="297" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="60">
       <c r="A297" s="29" t="s">
         <v>315</v>
       </c>
@@ -14881,7 +14847,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="30">
       <c r="A298" s="29" t="s">
         <v>316</v>
       </c>
@@ -14906,7 +14872,7 @@
       </c>
       <c r="I298" s="31"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9">
       <c r="A299" s="29" t="s">
         <v>317</v>
       </c>
@@ -14931,7 +14897,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300" s="29" t="s">
         <v>318</v>
       </c>
@@ -14956,7 +14922,7 @@
       </c>
       <c r="I300" s="31"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301" s="29" t="s">
         <v>319</v>
       </c>
@@ -14981,7 +14947,7 @@
       </c>
       <c r="I301" s="31"/>
     </row>
-    <row r="302" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="60">
       <c r="A302" s="29" t="s">
         <v>320</v>
       </c>
@@ -15006,7 +14972,7 @@
       </c>
       <c r="I302" s="31"/>
     </row>
-    <row r="303" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="75">
       <c r="A303" s="29" t="s">
         <v>321</v>
       </c>
@@ -15031,7 +14997,7 @@
       </c>
       <c r="I303" s="31"/>
     </row>
-    <row r="304" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="60">
       <c r="A304" s="29" t="s">
         <v>322</v>
       </c>
@@ -15056,7 +15022,7 @@
       </c>
       <c r="I304" s="31"/>
     </row>
-    <row r="305" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="75">
       <c r="A305" s="29" t="s">
         <v>323</v>
       </c>
@@ -15081,7 +15047,7 @@
       </c>
       <c r="I305" s="31"/>
     </row>
-    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="45">
       <c r="A306" s="22" t="s">
         <v>1737</v>
       </c>
@@ -15108,7 +15074,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="22" t="s">
         <v>1539</v>
       </c>
@@ -15133,7 +15099,7 @@
       </c>
       <c r="I307" s="31"/>
     </row>
-    <row r="308" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="60">
       <c r="A308" s="22" t="s">
         <v>1542</v>
       </c>
@@ -15141,7 +15107,7 @@
         <v>1540</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D308" s="22"/>
       <c r="E308" s="22" t="s">
@@ -15158,7 +15124,7 @@
       </c>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="22" t="s">
         <v>1541</v>
       </c>
@@ -15183,7 +15149,7 @@
       </c>
       <c r="I309" s="31"/>
     </row>
-    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="45">
       <c r="A310" s="29" t="s">
         <v>324</v>
       </c>
@@ -15208,7 +15174,7 @@
       </c>
       <c r="I310" s="31"/>
     </row>
-    <row r="311" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="30">
       <c r="A311" s="29" t="s">
         <v>325</v>
       </c>
@@ -15233,7 +15199,7 @@
       </c>
       <c r="I311" s="31"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9">
       <c r="A312" s="29" t="s">
         <v>326</v>
       </c>
@@ -15258,7 +15224,7 @@
       </c>
       <c r="I312" s="31"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9">
       <c r="A313" s="29" t="s">
         <v>327</v>
       </c>
@@ -15283,7 +15249,7 @@
       </c>
       <c r="I313" s="31"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9">
       <c r="A314" s="29" t="s">
         <v>328</v>
       </c>
@@ -15308,7 +15274,7 @@
       </c>
       <c r="I314" s="31"/>
     </row>
-    <row r="315" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="29" t="s">
         <v>329</v>
       </c>
@@ -15333,7 +15299,7 @@
       </c>
       <c r="I315" s="31"/>
     </row>
-    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="30">
       <c r="A316" s="29" t="s">
         <v>330</v>
       </c>
@@ -15358,7 +15324,7 @@
       </c>
       <c r="I316" s="31"/>
     </row>
-    <row r="317" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="90">
       <c r="A317" s="29" t="s">
         <v>331</v>
       </c>
@@ -15385,7 +15351,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="45">
       <c r="A318" s="29" t="s">
         <v>332</v>
       </c>
@@ -15412,7 +15378,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="75">
       <c r="A319" s="29" t="s">
         <v>333</v>
       </c>
@@ -15439,7 +15405,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="60">
       <c r="A320" s="22" t="s">
         <v>1530</v>
       </c>
@@ -15466,7 +15432,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="60">
       <c r="A321" s="29" t="s">
         <v>334</v>
       </c>
@@ -15491,7 +15457,7 @@
       </c>
       <c r="I321" s="31"/>
     </row>
-    <row r="322" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="45">
       <c r="A322" s="29" t="s">
         <v>335</v>
       </c>
@@ -15516,7 +15482,7 @@
       </c>
       <c r="I322" s="31"/>
     </row>
-    <row r="323" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="45">
       <c r="A323" s="29" t="s">
         <v>336</v>
       </c>
@@ -15541,7 +15507,7 @@
       </c>
       <c r="I323" s="31"/>
     </row>
-    <row r="324" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="45">
       <c r="A324" s="29" t="s">
         <v>337</v>
       </c>
@@ -15566,7 +15532,7 @@
       </c>
       <c r="I324" s="31"/>
     </row>
-    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="45">
       <c r="A325" s="29" t="s">
         <v>338</v>
       </c>
@@ -15591,7 +15557,7 @@
       </c>
       <c r="I325" s="31"/>
     </row>
-    <row r="326" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="60">
       <c r="A326" s="22" t="s">
         <v>1787</v>
       </c>
@@ -15618,15 +15584,15 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="45">
       <c r="A327" s="22" t="s">
-        <v>1880</v>
+        <v>1843</v>
       </c>
       <c r="B327" s="30" t="s">
         <v>840</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>1881</v>
+        <v>1844</v>
       </c>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
@@ -15643,7 +15609,7 @@
       </c>
       <c r="I327" s="20"/>
     </row>
-    <row r="328" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="60">
       <c r="A328" s="29" t="s">
         <v>339</v>
       </c>
@@ -15668,7 +15634,7 @@
       </c>
       <c r="I328" s="31"/>
     </row>
-    <row r="329" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="45">
       <c r="A329" s="29" t="s">
         <v>340</v>
       </c>
@@ -15693,7 +15659,7 @@
       </c>
       <c r="I329" s="31"/>
     </row>
-    <row r="330" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="60">
       <c r="A330" s="29" t="s">
         <v>341</v>
       </c>
@@ -15720,7 +15686,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="60">
       <c r="A331" s="29" t="s">
         <v>342</v>
       </c>
@@ -15747,7 +15713,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="45">
       <c r="A332" s="29" t="s">
         <v>343</v>
       </c>
@@ -15772,7 +15738,7 @@
       </c>
       <c r="I332" s="31"/>
     </row>
-    <row r="333" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="60">
       <c r="A333" s="29" t="s">
         <v>344</v>
       </c>
@@ -15797,7 +15763,7 @@
       </c>
       <c r="I333" s="31"/>
     </row>
-    <row r="334" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="60">
       <c r="A334" s="29" t="s">
         <v>345</v>
       </c>
@@ -15805,7 +15771,7 @@
         <v>840</v>
       </c>
       <c r="C334" s="20" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
@@ -15822,7 +15788,7 @@
       </c>
       <c r="I334" s="31"/>
     </row>
-    <row r="335" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="60">
       <c r="A335" s="29" t="s">
         <v>346</v>
       </c>
@@ -15847,7 +15813,7 @@
       </c>
       <c r="I335" s="31"/>
     </row>
-    <row r="336" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="60">
       <c r="A336" s="29" t="s">
         <v>347</v>
       </c>
@@ -15872,7 +15838,7 @@
       </c>
       <c r="I336" s="31"/>
     </row>
-    <row r="337" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="45">
       <c r="A337" s="29" t="s">
         <v>348</v>
       </c>
@@ -15897,7 +15863,7 @@
       </c>
       <c r="I337" s="31"/>
     </row>
-    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="45">
       <c r="A338" s="29" t="s">
         <v>349</v>
       </c>
@@ -15922,7 +15888,7 @@
       </c>
       <c r="I338" s="31"/>
     </row>
-    <row r="339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="60">
       <c r="A339" s="29" t="s">
         <v>350</v>
       </c>
@@ -15947,7 +15913,7 @@
       </c>
       <c r="I339" s="31"/>
     </row>
-    <row r="340" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="75">
       <c r="A340" s="29" t="s">
         <v>351</v>
       </c>
@@ -15972,7 +15938,7 @@
       </c>
       <c r="I340" s="31"/>
     </row>
-    <row r="341" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="60">
       <c r="A341" s="29" t="s">
         <v>352</v>
       </c>
@@ -15997,7 +15963,7 @@
       </c>
       <c r="I341" s="31"/>
     </row>
-    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="60">
       <c r="A342" s="29" t="s">
         <v>353</v>
       </c>
@@ -16022,7 +15988,7 @@
       </c>
       <c r="I342" s="31"/>
     </row>
-    <row r="343" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="45">
       <c r="A343" s="29" t="s">
         <v>354</v>
       </c>
@@ -16047,7 +16013,7 @@
       </c>
       <c r="I343" s="31"/>
     </row>
-    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="29" t="s">
         <v>355</v>
       </c>
@@ -16072,7 +16038,7 @@
       </c>
       <c r="I344" s="31"/>
     </row>
-    <row r="345" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="45">
       <c r="A345" s="29" t="s">
         <v>356</v>
       </c>
@@ -16097,7 +16063,7 @@
       </c>
       <c r="I345" s="31"/>
     </row>
-    <row r="346" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="45">
       <c r="A346" s="29" t="s">
         <v>357</v>
       </c>
@@ -16122,7 +16088,7 @@
       </c>
       <c r="I346" s="31"/>
     </row>
-    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="45">
       <c r="A347" s="29" t="s">
         <v>358</v>
       </c>
@@ -16147,7 +16113,7 @@
       </c>
       <c r="I347" s="31"/>
     </row>
-    <row r="348" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="45">
       <c r="A348" s="29" t="s">
         <v>359</v>
       </c>
@@ -16172,7 +16138,7 @@
       </c>
       <c r="I348" s="31"/>
     </row>
-    <row r="349" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="45">
       <c r="A349" s="29" t="s">
         <v>360</v>
       </c>
@@ -16197,7 +16163,7 @@
       </c>
       <c r="I349" s="31"/>
     </row>
-    <row r="350" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="60">
       <c r="A350" s="29" t="s">
         <v>361</v>
       </c>
@@ -16222,7 +16188,7 @@
       </c>
       <c r="I350" s="31"/>
     </row>
-    <row r="351" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="60">
       <c r="A351" s="29" t="s">
         <v>362</v>
       </c>
@@ -16247,7 +16213,7 @@
       </c>
       <c r="I351" s="31"/>
     </row>
-    <row r="352" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="60">
       <c r="A352" s="29" t="s">
         <v>363</v>
       </c>
@@ -16274,7 +16240,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="30">
       <c r="A353" s="29" t="s">
         <v>364</v>
       </c>
@@ -16299,7 +16265,7 @@
       </c>
       <c r="I353" s="31"/>
     </row>
-    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="30">
       <c r="A354" s="29" t="s">
         <v>365</v>
       </c>
@@ -16324,7 +16290,7 @@
       </c>
       <c r="I354" s="31"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9">
       <c r="A355" s="29" t="s">
         <v>366</v>
       </c>
@@ -16349,7 +16315,7 @@
       </c>
       <c r="I355" s="31"/>
     </row>
-    <row r="356" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="45">
       <c r="A356" s="29" t="s">
         <v>367</v>
       </c>
@@ -16374,7 +16340,7 @@
       </c>
       <c r="I356" s="31"/>
     </row>
-    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="30">
       <c r="A357" s="29" t="s">
         <v>368</v>
       </c>
@@ -16399,7 +16365,7 @@
       </c>
       <c r="I357" s="31"/>
     </row>
-    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="30">
       <c r="A358" s="29" t="s">
         <v>369</v>
       </c>
@@ -16424,7 +16390,7 @@
       </c>
       <c r="I358" s="31"/>
     </row>
-    <row r="359" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="75">
       <c r="A359" s="29" t="s">
         <v>370</v>
       </c>
@@ -16451,7 +16417,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="60">
       <c r="A360" s="29" t="s">
         <v>371</v>
       </c>
@@ -16476,7 +16442,7 @@
       </c>
       <c r="I360" s="31"/>
     </row>
-    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="30">
       <c r="A361" s="29" t="s">
         <v>372</v>
       </c>
@@ -16501,7 +16467,7 @@
       </c>
       <c r="I361" s="31"/>
     </row>
-    <row r="362" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="60">
       <c r="A362" s="29" t="s">
         <v>373</v>
       </c>
@@ -16526,7 +16492,7 @@
       </c>
       <c r="I362" s="31"/>
     </row>
-    <row r="363" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="60">
       <c r="A363" s="29" t="s">
         <v>374</v>
       </c>
@@ -16551,7 +16517,7 @@
       </c>
       <c r="I363" s="31"/>
     </row>
-    <row r="364" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="60">
       <c r="A364" s="29" t="s">
         <v>375</v>
       </c>
@@ -16576,7 +16542,7 @@
       </c>
       <c r="I364" s="31"/>
     </row>
-    <row r="365" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="60">
       <c r="A365" s="29" t="s">
         <v>376</v>
       </c>
@@ -16601,7 +16567,7 @@
       </c>
       <c r="I365" s="31"/>
     </row>
-    <row r="366" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="45">
       <c r="A366" s="29" t="s">
         <v>377</v>
       </c>
@@ -16626,7 +16592,7 @@
       </c>
       <c r="I366" s="31"/>
     </row>
-    <row r="367" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="75">
       <c r="A367" s="29" t="s">
         <v>378</v>
       </c>
@@ -16651,7 +16617,7 @@
       </c>
       <c r="I367" s="31"/>
     </row>
-    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="75">
       <c r="A368" s="29" t="s">
         <v>379</v>
       </c>
@@ -16676,7 +16642,7 @@
       </c>
       <c r="I368" s="31"/>
     </row>
-    <row r="369" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="60">
       <c r="A369" s="29" t="s">
         <v>380</v>
       </c>
@@ -16701,7 +16667,7 @@
       </c>
       <c r="I369" s="31"/>
     </row>
-    <row r="370" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="60">
       <c r="A370" s="29" t="s">
         <v>381</v>
       </c>
@@ -16726,7 +16692,7 @@
       </c>
       <c r="I370" s="31"/>
     </row>
-    <row r="371" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="45">
       <c r="A371" s="29" t="s">
         <v>382</v>
       </c>
@@ -16751,7 +16717,7 @@
       </c>
       <c r="I371" s="31"/>
     </row>
-    <row r="372" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="60">
       <c r="A372" s="29" t="s">
         <v>1525</v>
       </c>
@@ -16776,7 +16742,7 @@
       </c>
       <c r="I372" s="31"/>
     </row>
-    <row r="373" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="45">
       <c r="A373" s="29" t="s">
         <v>1526</v>
       </c>
@@ -16801,7 +16767,7 @@
       </c>
       <c r="I373" s="31"/>
     </row>
-    <row r="374" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="60">
       <c r="A374" s="29" t="s">
         <v>383</v>
       </c>
@@ -16826,7 +16792,7 @@
       </c>
       <c r="I374" s="31"/>
     </row>
-    <row r="375" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="60">
       <c r="A375" s="29" t="s">
         <v>384</v>
       </c>
@@ -16851,7 +16817,7 @@
       </c>
       <c r="I375" s="31"/>
     </row>
-    <row r="376" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="60">
       <c r="A376" s="29" t="s">
         <v>385</v>
       </c>
@@ -16876,7 +16842,7 @@
       </c>
       <c r="I376" s="31"/>
     </row>
-    <row r="377" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="30">
       <c r="A377" s="29" t="s">
         <v>386</v>
       </c>
@@ -16901,7 +16867,7 @@
       </c>
       <c r="I377" s="31"/>
     </row>
-    <row r="378" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="45">
       <c r="A378" s="29" t="s">
         <v>387</v>
       </c>
@@ -16926,7 +16892,7 @@
       </c>
       <c r="I378" s="31"/>
     </row>
-    <row r="379" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="45">
       <c r="A379" s="29" t="s">
         <v>388</v>
       </c>
@@ -16951,7 +16917,7 @@
       </c>
       <c r="I379" s="31"/>
     </row>
-    <row r="380" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="60">
       <c r="A380" s="29" t="s">
         <v>389</v>
       </c>
@@ -16976,7 +16942,7 @@
       </c>
       <c r="I380" s="31"/>
     </row>
-    <row r="381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="45">
       <c r="A381" s="29" t="s">
         <v>390</v>
       </c>
@@ -17001,7 +16967,7 @@
       </c>
       <c r="I381" s="31"/>
     </row>
-    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="29" t="s">
         <v>391</v>
       </c>
@@ -17026,7 +16992,7 @@
       </c>
       <c r="I382" s="31"/>
     </row>
-    <row r="383" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="75">
       <c r="A383" s="29" t="s">
         <v>392</v>
       </c>
@@ -17051,7 +17017,7 @@
       </c>
       <c r="I383" s="31"/>
     </row>
-    <row r="384" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="75">
       <c r="A384" s="29" t="s">
         <v>393</v>
       </c>
@@ -17078,7 +17044,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="60">
       <c r="A385" s="29" t="s">
         <v>394</v>
       </c>
@@ -17103,7 +17069,7 @@
       </c>
       <c r="I385" s="31"/>
     </row>
-    <row r="386" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="30">
       <c r="A386" s="29" t="s">
         <v>395</v>
       </c>
@@ -17128,7 +17094,7 @@
       </c>
       <c r="I386" s="31"/>
     </row>
-    <row r="387" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="45">
       <c r="A387" s="29" t="s">
         <v>396</v>
       </c>
@@ -17153,7 +17119,7 @@
       </c>
       <c r="I387" s="31"/>
     </row>
-    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="29" t="s">
         <v>397</v>
       </c>
@@ -17180,7 +17146,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="60">
       <c r="A389" s="29" t="s">
         <v>398</v>
       </c>
@@ -17205,7 +17171,7 @@
       </c>
       <c r="I389" s="31"/>
     </row>
-    <row r="390" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="60">
       <c r="A390" s="29" t="s">
         <v>399</v>
       </c>
@@ -17213,7 +17179,7 @@
         <v>845</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D390" s="29"/>
       <c r="E390" s="29" t="s">
@@ -17232,7 +17198,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="45">
       <c r="A391" s="29" t="s">
         <v>400</v>
       </c>
@@ -17259,7 +17225,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="60">
       <c r="A392" s="29" t="s">
         <v>401</v>
       </c>
@@ -17267,7 +17233,7 @@
         <v>845</v>
       </c>
       <c r="C392" s="20" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D392" s="29"/>
       <c r="E392" s="29" t="s">
@@ -17286,7 +17252,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45">
       <c r="A393" s="29" t="s">
         <v>402</v>
       </c>
@@ -17311,7 +17277,7 @@
       </c>
       <c r="I393" s="31"/>
     </row>
-    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="29" t="s">
         <v>403</v>
       </c>
@@ -17336,7 +17302,7 @@
       </c>
       <c r="I394" s="31"/>
     </row>
-    <row r="395" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="45">
       <c r="A395" s="29" t="s">
         <v>404</v>
       </c>
@@ -17361,7 +17327,7 @@
       </c>
       <c r="I395" s="31"/>
     </row>
-    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="45">
       <c r="A396" s="29" t="s">
         <v>405</v>
       </c>
@@ -17386,7 +17352,7 @@
       </c>
       <c r="I396" s="31"/>
     </row>
-    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="29" t="s">
         <v>406</v>
       </c>
@@ -17413,7 +17379,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="29" t="s">
         <v>407</v>
       </c>
@@ -17440,7 +17406,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="30">
       <c r="A399" s="29" t="s">
         <v>408</v>
       </c>
@@ -17465,7 +17431,7 @@
       </c>
       <c r="I399" s="31"/>
     </row>
-    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="29" t="s">
         <v>409</v>
       </c>
@@ -17490,7 +17456,7 @@
       </c>
       <c r="I400" s="31"/>
     </row>
-    <row r="401" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="45">
       <c r="A401" s="29" t="s">
         <v>410</v>
       </c>
@@ -17515,7 +17481,7 @@
       </c>
       <c r="I401" s="31"/>
     </row>
-    <row r="402" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="45">
       <c r="A402" s="22" t="s">
         <v>1535</v>
       </c>
@@ -17542,7 +17508,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="45">
       <c r="A403" s="29" t="s">
         <v>411</v>
       </c>
@@ -17567,7 +17533,7 @@
       </c>
       <c r="I403" s="31"/>
     </row>
-    <row r="404" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="45">
       <c r="A404" s="29" t="s">
         <v>412</v>
       </c>
@@ -17575,7 +17541,7 @@
         <v>848</v>
       </c>
       <c r="C404" s="20" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D404" s="29"/>
       <c r="E404" s="29" t="s">
@@ -17594,7 +17560,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="45">
       <c r="A405" s="29" t="s">
         <v>413</v>
       </c>
@@ -17619,7 +17585,7 @@
       </c>
       <c r="I405" s="31"/>
     </row>
-    <row r="406" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="45">
       <c r="A406" s="29" t="s">
         <v>414</v>
       </c>
@@ -17644,7 +17610,7 @@
       </c>
       <c r="I406" s="31"/>
     </row>
-    <row r="407" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="29" t="s">
         <v>415</v>
       </c>
@@ -17669,7 +17635,7 @@
       </c>
       <c r="I407" s="31"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="29" t="s">
         <v>416</v>
       </c>
@@ -17694,7 +17660,7 @@
       </c>
       <c r="I408" s="31"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9">
       <c r="A409" s="29" t="s">
         <v>417</v>
       </c>
@@ -17719,7 +17685,7 @@
       </c>
       <c r="I409" s="31"/>
     </row>
-    <row r="410" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="90">
       <c r="A410" s="29" t="s">
         <v>418</v>
       </c>
@@ -17744,7 +17710,7 @@
       </c>
       <c r="I410" s="31"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="30">
       <c r="A411" s="29" t="s">
         <v>419</v>
       </c>
@@ -17769,7 +17735,7 @@
       </c>
       <c r="I411" s="31"/>
     </row>
-    <row r="412" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="45">
       <c r="A412" s="29" t="s">
         <v>420</v>
       </c>
@@ -17794,7 +17760,7 @@
       </c>
       <c r="I412" s="31"/>
     </row>
-    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="30">
       <c r="A413" s="29" t="s">
         <v>421</v>
       </c>
@@ -17819,7 +17785,7 @@
       </c>
       <c r="I413" s="31"/>
     </row>
-    <row r="414" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="45">
       <c r="A414" s="29" t="s">
         <v>422</v>
       </c>
@@ -17827,7 +17793,7 @@
         <v>851</v>
       </c>
       <c r="C414" s="20" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -17844,7 +17810,7 @@
       </c>
       <c r="I414" s="31"/>
     </row>
-    <row r="415" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="60">
       <c r="A415" s="29" t="s">
         <v>423</v>
       </c>
@@ -17869,7 +17835,7 @@
       </c>
       <c r="I415" s="31"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="29" t="s">
         <v>424</v>
       </c>
@@ -17894,7 +17860,7 @@
       </c>
       <c r="I416" s="31"/>
     </row>
-    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="45">
       <c r="A417" s="29" t="s">
         <v>425</v>
       </c>
@@ -17902,7 +17868,7 @@
         <v>852</v>
       </c>
       <c r="C417" s="20" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="D417" s="29"/>
       <c r="E417" s="29" t="s">
@@ -17921,7 +17887,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="29" t="s">
         <v>426</v>
       </c>
@@ -17946,7 +17912,7 @@
       </c>
       <c r="I418" s="31"/>
     </row>
-    <row r="419" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="60">
       <c r="A419" s="29" t="s">
         <v>427</v>
       </c>
@@ -17954,7 +17920,7 @@
         <v>853</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="29" t="s">
@@ -17971,7 +17937,7 @@
       </c>
       <c r="I419" s="31"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="30">
       <c r="A420" s="29" t="s">
         <v>428</v>
       </c>
@@ -17996,7 +17962,7 @@
       </c>
       <c r="I420" s="31"/>
     </row>
-    <row r="421" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="60">
       <c r="A421" s="29" t="s">
         <v>429</v>
       </c>
@@ -18004,7 +17970,7 @@
         <v>854</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="29" t="s">
@@ -18023,7 +17989,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="29" t="s">
         <v>430</v>
       </c>
@@ -18048,7 +18014,7 @@
       </c>
       <c r="I422" s="31"/>
     </row>
-    <row r="423" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45">
       <c r="A423" s="29" t="s">
         <v>431</v>
       </c>
@@ -18056,7 +18022,7 @@
         <v>855</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="29" t="s">
@@ -18075,7 +18041,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="30">
       <c r="A424" s="29" t="s">
         <v>432</v>
       </c>
@@ -18100,7 +18066,7 @@
       </c>
       <c r="I424" s="31"/>
     </row>
-    <row r="425" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="60">
       <c r="A425" s="29" t="s">
         <v>433</v>
       </c>
@@ -18125,7 +18091,7 @@
       </c>
       <c r="I425" s="31"/>
     </row>
-    <row r="426" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="60">
       <c r="A426" s="29" t="s">
         <v>434</v>
       </c>
@@ -18150,7 +18116,7 @@
       </c>
       <c r="I426" s="31"/>
     </row>
-    <row r="427" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="75">
       <c r="A427" s="29" t="s">
         <v>435</v>
       </c>
@@ -18175,7 +18141,7 @@
       </c>
       <c r="I427" s="31"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9">
       <c r="A428" s="29" t="s">
         <v>436</v>
       </c>
@@ -18200,7 +18166,7 @@
       </c>
       <c r="I428" s="31"/>
     </row>
-    <row r="429" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" ht="75">
       <c r="A429" s="22" t="s">
         <v>437</v>
       </c>
@@ -18208,7 +18174,7 @@
         <v>856</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>1863</v>
+        <v>1870</v>
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="29" t="s">
@@ -18225,7 +18191,7 @@
       </c>
       <c r="I429" s="31"/>
     </row>
-    <row r="430" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="30">
       <c r="A430" s="22" t="s">
         <v>438</v>
       </c>
@@ -18250,7 +18216,7 @@
       </c>
       <c r="I430" s="31"/>
     </row>
-    <row r="431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="30">
       <c r="A431" s="29" t="s">
         <v>439</v>
       </c>
@@ -18275,7 +18241,7 @@
       </c>
       <c r="I431" s="31"/>
     </row>
-    <row r="432" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="60">
       <c r="A432" s="29" t="s">
         <v>440</v>
       </c>
@@ -18283,7 +18249,7 @@
         <v>857</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="29" t="s">
@@ -18300,7 +18266,7 @@
       </c>
       <c r="I432" s="31"/>
     </row>
-    <row r="433" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="29" t="s">
         <v>441</v>
       </c>
@@ -18325,7 +18291,7 @@
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="45">
       <c r="A434" s="29" t="s">
         <v>442</v>
       </c>
@@ -18352,7 +18318,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="29" t="s">
         <v>443</v>
       </c>
@@ -18377,7 +18343,7 @@
       </c>
       <c r="I435" s="31"/>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9">
       <c r="A436" s="29" t="s">
         <v>444</v>
       </c>
@@ -18402,7 +18368,7 @@
       </c>
       <c r="I436" s="31"/>
     </row>
-    <row r="437" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="90">
       <c r="A437" s="29" t="s">
         <v>445</v>
       </c>
@@ -18427,7 +18393,7 @@
       </c>
       <c r="I437" s="31"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="29" t="s">
         <v>446</v>
       </c>
@@ -18452,7 +18418,7 @@
       </c>
       <c r="I438" s="31"/>
     </row>
-    <row r="439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="45">
       <c r="A439" s="29" t="s">
         <v>447</v>
       </c>
@@ -18477,7 +18443,7 @@
       </c>
       <c r="I439" s="31"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="30">
       <c r="A440" s="29" t="s">
         <v>448</v>
       </c>
@@ -18502,7 +18468,7 @@
       </c>
       <c r="I440" s="31"/>
     </row>
-    <row r="441" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="90">
       <c r="A441" s="29" t="s">
         <v>449</v>
       </c>
@@ -18510,7 +18476,7 @@
         <v>860</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>1865</v>
+        <v>1872</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -18527,7 +18493,7 @@
       </c>
       <c r="I441" s="31"/>
     </row>
-    <row r="442" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="30">
       <c r="A442" s="29" t="s">
         <v>450</v>
       </c>
@@ -18552,7 +18518,7 @@
       </c>
       <c r="I442" s="31"/>
     </row>
-    <row r="443" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="30">
       <c r="A443" s="29" t="s">
         <v>451</v>
       </c>
@@ -18577,7 +18543,7 @@
       </c>
       <c r="I443" s="31"/>
     </row>
-    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="29" t="s">
         <v>452</v>
       </c>
@@ -18602,7 +18568,7 @@
       </c>
       <c r="I444" s="31"/>
     </row>
-    <row r="445" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="30">
       <c r="A445" s="29" t="s">
         <v>453</v>
       </c>
@@ -18627,7 +18593,7 @@
       </c>
       <c r="I445" s="31"/>
     </row>
-    <row r="446" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="30">
       <c r="A446" s="29" t="s">
         <v>454</v>
       </c>
@@ -18652,7 +18618,7 @@
       </c>
       <c r="I446" s="31"/>
     </row>
-    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="30">
       <c r="A447" s="29" t="s">
         <v>455</v>
       </c>
@@ -18677,7 +18643,7 @@
       </c>
       <c r="I447" s="31"/>
     </row>
-    <row r="448" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="45">
       <c r="A448" s="29" t="s">
         <v>456</v>
       </c>
@@ -18702,7 +18668,7 @@
       </c>
       <c r="I448" s="31"/>
     </row>
-    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="30">
       <c r="A449" s="29" t="s">
         <v>457</v>
       </c>
@@ -18727,7 +18693,7 @@
       </c>
       <c r="I449" s="31"/>
     </row>
-    <row r="450" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="30">
       <c r="A450" s="29" t="s">
         <v>458</v>
       </c>
@@ -18752,7 +18718,7 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="30">
       <c r="A451" s="29" t="s">
         <v>459</v>
       </c>
@@ -18777,7 +18743,7 @@
       </c>
       <c r="I451" s="31"/>
     </row>
-    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="30">
       <c r="A452" s="29" t="s">
         <v>460</v>
       </c>
@@ -18802,7 +18768,7 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="30">
       <c r="A453" s="29" t="s">
         <v>461</v>
       </c>
@@ -18827,7 +18793,7 @@
       </c>
       <c r="I453" s="31"/>
     </row>
-    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="30">
       <c r="A454" s="29" t="s">
         <v>462</v>
       </c>
@@ -18852,7 +18818,7 @@
       </c>
       <c r="I454" s="31"/>
     </row>
-    <row r="455" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="30">
       <c r="A455" s="29" t="s">
         <v>463</v>
       </c>
@@ -18877,7 +18843,7 @@
       </c>
       <c r="I455" s="31"/>
     </row>
-    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="30">
       <c r="A456" s="29" t="s">
         <v>464</v>
       </c>
@@ -18902,7 +18868,7 @@
       </c>
       <c r="I456" s="31"/>
     </row>
-    <row r="457" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" ht="45">
       <c r="A457" s="22" t="s">
         <v>465</v>
       </c>
@@ -18910,7 +18876,7 @@
         <v>861</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>1866</v>
+        <v>1873</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -18927,7 +18893,7 @@
       </c>
       <c r="I457" s="31"/>
     </row>
-    <row r="458" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" ht="60">
       <c r="A458" s="29" t="s">
         <v>466</v>
       </c>
@@ -18952,7 +18918,7 @@
       </c>
       <c r="I458" s="31"/>
     </row>
-    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="45">
       <c r="A459" s="29" t="s">
         <v>467</v>
       </c>
@@ -18977,7 +18943,7 @@
       </c>
       <c r="I459" s="31"/>
     </row>
-    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30">
       <c r="A460" s="29" t="s">
         <v>468</v>
       </c>
@@ -19002,7 +18968,7 @@
       </c>
       <c r="I460" s="31"/>
     </row>
-    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30">
       <c r="A461" s="29" t="s">
         <v>469</v>
       </c>
@@ -19027,7 +18993,7 @@
       </c>
       <c r="I461" s="31"/>
     </row>
-    <row r="462" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="75">
       <c r="A462" s="29" t="s">
         <v>470</v>
       </c>
@@ -19035,7 +19001,7 @@
         <v>862</v>
       </c>
       <c r="C462" s="20" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -19052,7 +19018,7 @@
       </c>
       <c r="I462" s="31"/>
     </row>
-    <row r="463" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="45">
       <c r="A463" s="29" t="s">
         <v>471</v>
       </c>
@@ -19077,7 +19043,7 @@
       </c>
       <c r="I463" s="31"/>
     </row>
-    <row r="464" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="45">
       <c r="A464" s="22" t="s">
         <v>472</v>
       </c>
@@ -19102,7 +19068,7 @@
       </c>
       <c r="I464" s="31"/>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30">
       <c r="A465" s="29" t="s">
         <v>473</v>
       </c>
@@ -19127,7 +19093,7 @@
       </c>
       <c r="I465" s="31"/>
     </row>
-    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="60">
       <c r="A466" s="29" t="s">
         <v>474</v>
       </c>
@@ -19152,7 +19118,7 @@
       </c>
       <c r="I466" s="31"/>
     </row>
-    <row r="467" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="30">
       <c r="A467" s="29" t="s">
         <v>475</v>
       </c>
@@ -19177,7 +19143,7 @@
       </c>
       <c r="I467" s="31"/>
     </row>
-    <row r="468" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" ht="60">
       <c r="A468" s="22" t="s">
         <v>1742</v>
       </c>
@@ -19185,7 +19151,7 @@
         <v>864</v>
       </c>
       <c r="C468" s="20" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -19204,7 +19170,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="30">
       <c r="A469" s="29" t="s">
         <v>476</v>
       </c>
@@ -19229,7 +19195,7 @@
       </c>
       <c r="I469" s="31"/>
     </row>
-    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="60">
       <c r="A470" s="22" t="s">
         <v>1748</v>
       </c>
@@ -19237,7 +19203,7 @@
         <v>865</v>
       </c>
       <c r="C470" s="20" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29" t="s">
@@ -19256,7 +19222,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" ht="30">
       <c r="A471" s="29" t="s">
         <v>477</v>
       </c>
@@ -19281,7 +19247,7 @@
       </c>
       <c r="I471" s="31"/>
     </row>
-    <row r="472" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" ht="45">
       <c r="A472" s="29" t="s">
         <v>478</v>
       </c>
@@ -19306,7 +19272,7 @@
       </c>
       <c r="I472" s="31"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="30">
       <c r="A473" s="29" t="s">
         <v>479</v>
       </c>
@@ -19331,7 +19297,7 @@
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" ht="45">
       <c r="A474" s="29" t="s">
         <v>480</v>
       </c>
@@ -19339,7 +19305,7 @@
         <v>867</v>
       </c>
       <c r="C474" s="20" t="s">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="29" t="s">
@@ -19358,7 +19324,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="30">
       <c r="A475" s="22" t="s">
         <v>481</v>
       </c>
@@ -19366,7 +19332,7 @@
         <v>867</v>
       </c>
       <c r="C475" s="20" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D475" s="29"/>
       <c r="E475" s="29" t="s">
@@ -19385,7 +19351,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="30">
       <c r="A476" s="22" t="s">
         <v>482</v>
       </c>
@@ -19393,7 +19359,7 @@
         <v>867</v>
       </c>
       <c r="C476" s="20" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29" t="s">
@@ -19412,7 +19378,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" ht="30">
       <c r="A477" s="29" t="s">
         <v>483</v>
       </c>
@@ -19437,7 +19403,7 @@
       </c>
       <c r="I477" s="31"/>
     </row>
-    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30">
       <c r="A478" s="29" t="s">
         <v>484</v>
       </c>
@@ -19462,7 +19428,7 @@
       </c>
       <c r="I478" s="31"/>
     </row>
-    <row r="479" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="45">
       <c r="A479" s="29" t="s">
         <v>485</v>
       </c>
@@ -19470,7 +19436,7 @@
         <v>868</v>
       </c>
       <c r="C479" s="20" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -19489,7 +19455,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30">
       <c r="A480" s="29" t="s">
         <v>486</v>
       </c>
@@ -19514,7 +19480,7 @@
       </c>
       <c r="I480" s="31"/>
     </row>
-    <row r="481" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="30">
       <c r="A481" s="29" t="s">
         <v>487</v>
       </c>
@@ -19539,7 +19505,7 @@
       </c>
       <c r="I481" s="31"/>
     </row>
-    <row r="482" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="30">
       <c r="A482" s="29" t="s">
         <v>488</v>
       </c>
@@ -19564,7 +19530,7 @@
       </c>
       <c r="I482" s="31"/>
     </row>
-    <row r="483" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="30">
       <c r="A483" s="29" t="s">
         <v>489</v>
       </c>
@@ -19589,7 +19555,7 @@
       </c>
       <c r="I483" s="31"/>
     </row>
-    <row r="484" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="45">
       <c r="A484" s="29" t="s">
         <v>490</v>
       </c>
@@ -19597,7 +19563,7 @@
         <v>869</v>
       </c>
       <c r="C484" s="20" t="s">
-        <v>1871</v>
+        <v>1877</v>
       </c>
       <c r="D484" s="29"/>
       <c r="E484" s="29" t="s">
@@ -19614,7 +19580,7 @@
       </c>
       <c r="I484" s="31"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="30">
       <c r="A485" s="29" t="s">
         <v>491</v>
       </c>
@@ -19639,7 +19605,7 @@
       </c>
       <c r="I485" s="31"/>
     </row>
-    <row r="486" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="45">
       <c r="A486" s="29" t="s">
         <v>492</v>
       </c>
@@ -19647,7 +19613,7 @@
         <v>870</v>
       </c>
       <c r="C486" s="20" t="s">
-        <v>1873</v>
+        <v>1878</v>
       </c>
       <c r="D486" s="29"/>
       <c r="E486" s="29" t="s">
@@ -19664,7 +19630,7 @@
       </c>
       <c r="I486" s="31"/>
     </row>
-    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30">
       <c r="A487" s="29" t="s">
         <v>493</v>
       </c>
@@ -19672,7 +19638,7 @@
         <v>870</v>
       </c>
       <c r="C487" s="20" t="s">
-        <v>1872</v>
+        <v>1838</v>
       </c>
       <c r="D487" s="29"/>
       <c r="E487" s="29" t="s">
@@ -19689,7 +19655,7 @@
       </c>
       <c r="I487" s="31"/>
     </row>
-    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="45">
       <c r="A488" s="29" t="s">
         <v>494</v>
       </c>
@@ -19714,7 +19680,7 @@
       </c>
       <c r="I488" s="31"/>
     </row>
-    <row r="489" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="30">
       <c r="A489" s="29" t="s">
         <v>495</v>
       </c>
@@ -19739,7 +19705,7 @@
       </c>
       <c r="I489" s="31"/>
     </row>
-    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="60">
       <c r="A490" s="29" t="s">
         <v>496</v>
       </c>
@@ -19764,7 +19730,7 @@
       </c>
       <c r="I490" s="31"/>
     </row>
-    <row r="491" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="45">
       <c r="A491" s="29" t="s">
         <v>497</v>
       </c>
@@ -19789,7 +19755,7 @@
       </c>
       <c r="I491" s="31"/>
     </row>
-    <row r="492" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="45">
       <c r="A492" s="29" t="s">
         <v>498</v>
       </c>
@@ -19814,7 +19780,7 @@
       </c>
       <c r="I492" s="31"/>
     </row>
-    <row r="493" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="45">
       <c r="A493" s="29" t="s">
         <v>499</v>
       </c>
@@ -19839,7 +19805,7 @@
       </c>
       <c r="I493" s="31"/>
     </row>
-    <row r="494" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" ht="45">
       <c r="A494" s="29" t="s">
         <v>500</v>
       </c>
@@ -19864,7 +19830,7 @@
       </c>
       <c r="I494" s="31"/>
     </row>
-    <row r="495" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75">
       <c r="A495" s="29" t="s">
         <v>501</v>
       </c>
@@ -19889,7 +19855,7 @@
       </c>
       <c r="I495" s="31"/>
     </row>
-    <row r="496" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="45">
       <c r="A496" s="29" t="s">
         <v>502</v>
       </c>
@@ -19914,7 +19880,7 @@
       </c>
       <c r="I496" s="31"/>
     </row>
-    <row r="497" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="30">
       <c r="A497" s="29" t="s">
         <v>503</v>
       </c>
@@ -19941,7 +19907,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="60">
       <c r="A498" s="29" t="s">
         <v>504</v>
       </c>
@@ -19966,7 +19932,7 @@
       </c>
       <c r="I498" s="31"/>
     </row>
-    <row r="499" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="75">
       <c r="A499" s="29" t="s">
         <v>505</v>
       </c>
@@ -19991,7 +19957,7 @@
       </c>
       <c r="I499" s="31"/>
     </row>
-    <row r="500" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="90">
       <c r="A500" s="29" t="s">
         <v>506</v>
       </c>
@@ -20016,7 +19982,7 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="45">
       <c r="A501" s="29" t="s">
         <v>507</v>
       </c>
@@ -20041,7 +20007,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" ht="30">
       <c r="A502" s="29" t="s">
         <v>508</v>
       </c>
@@ -20066,7 +20032,7 @@
       </c>
       <c r="I502" s="31"/>
     </row>
-    <row r="503" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="60">
       <c r="A503" s="29" t="s">
         <v>509</v>
       </c>
@@ -20074,7 +20040,7 @@
         <v>873</v>
       </c>
       <c r="C503" s="20" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="29" t="s">
@@ -20091,7 +20057,7 @@
       </c>
       <c r="I503" s="31"/>
     </row>
-    <row r="504" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="45">
       <c r="A504" s="29" t="s">
         <v>510</v>
       </c>
@@ -20116,7 +20082,7 @@
       </c>
       <c r="I504" s="31"/>
     </row>
-    <row r="505" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="75">
       <c r="A505" s="29" t="s">
         <v>511</v>
       </c>
@@ -20141,7 +20107,7 @@
       </c>
       <c r="I505" s="31"/>
     </row>
-    <row r="506" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" ht="60">
       <c r="A506" s="29" t="s">
         <v>512</v>
       </c>
@@ -20166,7 +20132,7 @@
       </c>
       <c r="I506" s="31"/>
     </row>
-    <row r="507" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" ht="45">
       <c r="A507" s="29" t="s">
         <v>513</v>
       </c>
@@ -20191,7 +20157,7 @@
       </c>
       <c r="I507" s="31"/>
     </row>
-    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45">
       <c r="A508" s="29" t="s">
         <v>514</v>
       </c>
@@ -20216,7 +20182,7 @@
       </c>
       <c r="I508" s="31"/>
     </row>
-    <row r="509" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" ht="45">
       <c r="A509" s="29" t="s">
         <v>515</v>
       </c>
@@ -20241,7 +20207,7 @@
       </c>
       <c r="I509" s="31"/>
     </row>
-    <row r="510" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" ht="45">
       <c r="A510" s="29" t="s">
         <v>516</v>
       </c>
@@ -20266,7 +20232,7 @@
       </c>
       <c r="I510" s="31"/>
     </row>
-    <row r="511" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" ht="45">
       <c r="A511" s="29" t="s">
         <v>517</v>
       </c>
@@ -20291,7 +20257,7 @@
       </c>
       <c r="I511" s="31"/>
     </row>
-    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="45">
       <c r="A512" s="29" t="s">
         <v>518</v>
       </c>
@@ -20316,7 +20282,7 @@
       </c>
       <c r="I512" s="31"/>
     </row>
-    <row r="513" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="105">
       <c r="A513" s="29" t="s">
         <v>519</v>
       </c>
@@ -20341,7 +20307,7 @@
       </c>
       <c r="I513" s="31"/>
     </row>
-    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60">
       <c r="A514" s="29" t="s">
         <v>520</v>
       </c>
@@ -20349,7 +20315,7 @@
         <v>874</v>
       </c>
       <c r="C514" s="20" t="s">
-        <v>1874</v>
+        <v>1879</v>
       </c>
       <c r="D514" s="29"/>
       <c r="E514" s="29" t="s">
@@ -20366,7 +20332,7 @@
       </c>
       <c r="I514" s="31"/>
     </row>
-    <row r="515" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" ht="45">
       <c r="A515" s="29" t="s">
         <v>521</v>
       </c>
@@ -20391,7 +20357,7 @@
       </c>
       <c r="I515" s="31"/>
     </row>
-    <row r="516" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="45">
       <c r="A516" s="29" t="s">
         <v>522</v>
       </c>
@@ -20416,7 +20382,7 @@
       </c>
       <c r="I516" s="31"/>
     </row>
-    <row r="517" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" ht="45">
       <c r="A517" s="29" t="s">
         <v>523</v>
       </c>
@@ -20441,7 +20407,7 @@
       </c>
       <c r="I517" s="31"/>
     </row>
-    <row r="518" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" ht="60">
       <c r="A518" s="29" t="s">
         <v>524</v>
       </c>
@@ -20466,7 +20432,7 @@
       </c>
       <c r="I518" s="31"/>
     </row>
-    <row r="519" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="60">
       <c r="A519" s="29" t="s">
         <v>525</v>
       </c>
@@ -20491,7 +20457,7 @@
       </c>
       <c r="I519" s="31"/>
     </row>
-    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45">
       <c r="A520" s="29" t="s">
         <v>526</v>
       </c>
@@ -20516,7 +20482,7 @@
       </c>
       <c r="I520" s="31"/>
     </row>
-    <row r="521" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="30">
       <c r="A521" s="29" t="s">
         <v>527</v>
       </c>
@@ -20541,7 +20507,7 @@
       </c>
       <c r="I521" s="31"/>
     </row>
-    <row r="522" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="30">
       <c r="A522" s="29" t="s">
         <v>528</v>
       </c>
@@ -20566,7 +20532,7 @@
       </c>
       <c r="I522" s="31"/>
     </row>
-    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30">
       <c r="A523" s="29" t="s">
         <v>529</v>
       </c>
@@ -20591,7 +20557,7 @@
       </c>
       <c r="I523" s="31"/>
     </row>
-    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="75">
       <c r="A524" s="29" t="s">
         <v>530</v>
       </c>
@@ -20616,7 +20582,7 @@
       </c>
       <c r="I524" s="31"/>
     </row>
-    <row r="525" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75">
       <c r="A525" s="29" t="s">
         <v>531</v>
       </c>
@@ -20641,7 +20607,7 @@
       </c>
       <c r="I525" s="31"/>
     </row>
-    <row r="526" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="30">
       <c r="A526" s="29" t="s">
         <v>532</v>
       </c>
@@ -20666,7 +20632,7 @@
       </c>
       <c r="I526" s="31"/>
     </row>
-    <row r="527" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" ht="30">
       <c r="A527" s="29" t="s">
         <v>533</v>
       </c>
@@ -20691,7 +20657,7 @@
       </c>
       <c r="I527" s="31"/>
     </row>
-    <row r="528" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" ht="45">
       <c r="A528" s="29" t="s">
         <v>534</v>
       </c>
@@ -20716,7 +20682,7 @@
       </c>
       <c r="I528" s="31"/>
     </row>
-    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="45">
       <c r="A529" s="29" t="s">
         <v>535</v>
       </c>
@@ -20741,7 +20707,7 @@
       </c>
       <c r="I529" s="31"/>
     </row>
-    <row r="530" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="30">
       <c r="A530" s="29" t="s">
         <v>536</v>
       </c>
@@ -20766,7 +20732,7 @@
       </c>
       <c r="I530" s="31"/>
     </row>
-    <row r="531" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="60">
       <c r="A531" s="29" t="s">
         <v>537</v>
       </c>
@@ -20791,7 +20757,7 @@
       </c>
       <c r="I531" s="31"/>
     </row>
-    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="45">
       <c r="A532" s="29" t="s">
         <v>538</v>
       </c>
@@ -20816,7 +20782,7 @@
       </c>
       <c r="I532" s="31"/>
     </row>
-    <row r="533" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="75">
       <c r="A533" s="29" t="s">
         <v>539</v>
       </c>
@@ -20824,7 +20790,7 @@
         <v>877</v>
       </c>
       <c r="C533" s="20" t="s">
-        <v>1875</v>
+        <v>1839</v>
       </c>
       <c r="D533" s="29"/>
       <c r="E533" s="29" t="s">
@@ -20841,7 +20807,7 @@
       </c>
       <c r="I533" s="31"/>
     </row>
-    <row r="534" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" ht="45">
       <c r="A534" s="29" t="s">
         <v>540</v>
       </c>
@@ -20866,7 +20832,7 @@
       </c>
       <c r="I534" s="31"/>
     </row>
-    <row r="535" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" ht="75">
       <c r="A535" s="29" t="s">
         <v>541</v>
       </c>
@@ -20891,7 +20857,7 @@
       </c>
       <c r="I535" s="31"/>
     </row>
-    <row r="536" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" ht="60">
       <c r="A536" s="29" t="s">
         <v>542</v>
       </c>
@@ -20916,7 +20882,7 @@
       </c>
       <c r="I536" s="31"/>
     </row>
-    <row r="537" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" ht="30">
       <c r="A537" s="29" t="s">
         <v>543</v>
       </c>
@@ -20941,7 +20907,7 @@
       </c>
       <c r="I537" s="31"/>
     </row>
-    <row r="538" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="60">
       <c r="A538" s="29" t="s">
         <v>544</v>
       </c>
@@ -20966,7 +20932,7 @@
       </c>
       <c r="I538" s="31"/>
     </row>
-    <row r="539" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" ht="75">
       <c r="A539" s="29" t="s">
         <v>545</v>
       </c>
@@ -20991,7 +20957,7 @@
       </c>
       <c r="I539" s="31"/>
     </row>
-    <row r="540" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" ht="30">
       <c r="A540" s="29" t="s">
         <v>546</v>
       </c>
@@ -21016,7 +20982,7 @@
       </c>
       <c r="I540" s="31"/>
     </row>
-    <row r="541" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" ht="60">
       <c r="A541" s="29" t="s">
         <v>547</v>
       </c>
@@ -21041,7 +21007,7 @@
       </c>
       <c r="I541" s="31"/>
     </row>
-    <row r="542" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" ht="60">
       <c r="A542" s="29" t="s">
         <v>548</v>
       </c>
@@ -21066,7 +21032,7 @@
       </c>
       <c r="I542" s="31"/>
     </row>
-    <row r="543" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="60">
       <c r="A543" s="29" t="s">
         <v>549</v>
       </c>
@@ -21091,7 +21057,7 @@
       </c>
       <c r="I543" s="31"/>
     </row>
-    <row r="544" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" ht="60">
       <c r="A544" s="29" t="s">
         <v>550</v>
       </c>
@@ -21116,7 +21082,7 @@
       </c>
       <c r="I544" s="31"/>
     </row>
-    <row r="545" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" ht="45">
       <c r="A545" s="29" t="s">
         <v>551</v>
       </c>
@@ -21141,7 +21107,7 @@
       </c>
       <c r="I545" s="31"/>
     </row>
-    <row r="546" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" ht="105">
       <c r="A546" s="29" t="s">
         <v>552</v>
       </c>
@@ -21166,7 +21132,7 @@
       </c>
       <c r="I546" s="31"/>
     </row>
-    <row r="547" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" ht="30">
       <c r="A547" s="29" t="s">
         <v>553</v>
       </c>
@@ -21191,7 +21157,7 @@
       </c>
       <c r="I547" s="31"/>
     </row>
-    <row r="548" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" ht="45">
       <c r="A548" s="29" t="s">
         <v>554</v>
       </c>
@@ -21216,7 +21182,7 @@
       </c>
       <c r="I548" s="31"/>
     </row>
-    <row r="549" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" ht="45">
       <c r="A549" s="29" t="s">
         <v>555</v>
       </c>
@@ -21241,7 +21207,7 @@
       </c>
       <c r="I549" s="31"/>
     </row>
-    <row r="550" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" ht="60">
       <c r="A550" s="29" t="s">
         <v>556</v>
       </c>
@@ -21266,7 +21232,7 @@
       </c>
       <c r="I550" s="31"/>
     </row>
-    <row r="551" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" ht="30">
       <c r="A551" s="29" t="s">
         <v>557</v>
       </c>
@@ -21291,7 +21257,7 @@
       </c>
       <c r="I551" s="31"/>
     </row>
-    <row r="552" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" ht="45">
       <c r="A552" s="29" t="s">
         <v>558</v>
       </c>
@@ -21316,7 +21282,7 @@
       </c>
       <c r="I552" s="31"/>
     </row>
-    <row r="553" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" ht="45">
       <c r="A553" s="29" t="s">
         <v>559</v>
       </c>
@@ -21341,7 +21307,7 @@
       </c>
       <c r="I553" s="31"/>
     </row>
-    <row r="554" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" ht="75">
       <c r="A554" s="29" t="s">
         <v>560</v>
       </c>
@@ -21366,7 +21332,7 @@
       </c>
       <c r="I554" s="31"/>
     </row>
-    <row r="555" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" ht="45">
       <c r="A555" s="29" t="s">
         <v>561</v>
       </c>
@@ -21391,7 +21357,7 @@
       </c>
       <c r="I555" s="31"/>
     </row>
-    <row r="556" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" ht="30">
       <c r="A556" s="29" t="s">
         <v>562</v>
       </c>
@@ -21416,7 +21382,7 @@
       </c>
       <c r="I556" s="31"/>
     </row>
-    <row r="557" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" ht="45">
       <c r="A557" s="29" t="s">
         <v>563</v>
       </c>
@@ -21441,7 +21407,7 @@
       </c>
       <c r="I557" s="31"/>
     </row>
-    <row r="558" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" ht="30">
       <c r="A558" s="29" t="s">
         <v>564</v>
       </c>
@@ -21466,7 +21432,7 @@
       </c>
       <c r="I558" s="31"/>
     </row>
-    <row r="559" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" ht="45">
       <c r="A559" s="29" t="s">
         <v>565</v>
       </c>
@@ -21491,7 +21457,7 @@
       </c>
       <c r="I559" s="31"/>
     </row>
-    <row r="560" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" ht="60">
       <c r="A560" s="29" t="s">
         <v>566</v>
       </c>
@@ -21516,7 +21482,7 @@
       </c>
       <c r="I560" s="31"/>
     </row>
-    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="45">
       <c r="A561" s="29" t="s">
         <v>567</v>
       </c>
@@ -21541,7 +21507,7 @@
       </c>
       <c r="I561" s="31"/>
     </row>
-    <row r="562" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" ht="45">
       <c r="A562" s="29" t="s">
         <v>568</v>
       </c>
@@ -21566,7 +21532,7 @@
       </c>
       <c r="I562" s="31"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" ht="30">
       <c r="A563" s="29" t="s">
         <v>569</v>
       </c>
@@ -21591,7 +21557,7 @@
       </c>
       <c r="I563" s="31"/>
     </row>
-    <row r="564" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" ht="30">
       <c r="A564" s="29" t="s">
         <v>570</v>
       </c>
@@ -21616,7 +21582,7 @@
       </c>
       <c r="I564" s="31"/>
     </row>
-    <row r="565" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" ht="45">
       <c r="A565" s="29" t="s">
         <v>571</v>
       </c>
@@ -21641,7 +21607,7 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" ht="45">
       <c r="A566" s="29" t="s">
         <v>572</v>
       </c>
@@ -21666,7 +21632,7 @@
       </c>
       <c r="I566" s="31"/>
     </row>
-    <row r="567" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" ht="45">
       <c r="A567" s="29" t="s">
         <v>573</v>
       </c>
@@ -21691,7 +21657,7 @@
       </c>
       <c r="I567" s="31"/>
     </row>
-    <row r="568" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="45">
       <c r="A568" s="29" t="s">
         <v>574</v>
       </c>
@@ -21716,7 +21682,7 @@
       </c>
       <c r="I568" s="31"/>
     </row>
-    <row r="569" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" ht="45">
       <c r="A569" s="29" t="s">
         <v>575</v>
       </c>
@@ -21741,7 +21707,7 @@
       </c>
       <c r="I569" s="31"/>
     </row>
-    <row r="570" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" ht="75">
       <c r="A570" s="29" t="s">
         <v>576</v>
       </c>
@@ -21766,7 +21732,7 @@
       </c>
       <c r="I570" s="31"/>
     </row>
-    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" ht="45">
       <c r="A571" s="29" t="s">
         <v>577</v>
       </c>
@@ -21791,7 +21757,7 @@
       </c>
       <c r="I571" s="31"/>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" ht="30">
       <c r="A572" s="29" t="s">
         <v>578</v>
       </c>
@@ -21816,7 +21782,7 @@
       </c>
       <c r="I572" s="31"/>
     </row>
-    <row r="573" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" ht="30">
       <c r="A573" s="29" t="s">
         <v>579</v>
       </c>
@@ -21841,7 +21807,7 @@
       </c>
       <c r="I573" s="31"/>
     </row>
-    <row r="574" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" ht="45">
       <c r="A574" s="29" t="s">
         <v>580</v>
       </c>
@@ -21866,7 +21832,7 @@
       </c>
       <c r="I574" s="31"/>
     </row>
-    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30">
       <c r="A575" s="29" t="s">
         <v>581</v>
       </c>
@@ -21891,7 +21857,7 @@
       </c>
       <c r="I575" s="31"/>
     </row>
-    <row r="576" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="60">
       <c r="A576" s="29" t="s">
         <v>582</v>
       </c>
@@ -21916,7 +21882,7 @@
       </c>
       <c r="I576" s="31"/>
     </row>
-    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="45">
       <c r="A577" s="29" t="s">
         <v>583</v>
       </c>
@@ -21941,7 +21907,7 @@
       </c>
       <c r="I577" s="31"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="30">
       <c r="A578" s="29" t="s">
         <v>584</v>
       </c>
@@ -21966,7 +21932,7 @@
       </c>
       <c r="I578" s="31"/>
     </row>
-    <row r="579" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" ht="30">
       <c r="A579" s="29" t="s">
         <v>585</v>
       </c>
@@ -21991,7 +21957,7 @@
       </c>
       <c r="I579" s="31"/>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" ht="30">
       <c r="A580" s="29" t="s">
         <v>586</v>
       </c>
@@ -22016,7 +21982,7 @@
       </c>
       <c r="I580" s="31"/>
     </row>
-    <row r="581" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="30">
       <c r="A581" s="29" t="s">
         <v>587</v>
       </c>
@@ -22041,7 +22007,7 @@
       </c>
       <c r="I581" s="31"/>
     </row>
-    <row r="582" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" ht="30">
       <c r="A582" s="29" t="s">
         <v>588</v>
       </c>
@@ -22066,7 +22032,7 @@
       </c>
       <c r="I582" s="31"/>
     </row>
-    <row r="583" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" ht="30">
       <c r="A583" s="29" t="s">
         <v>589</v>
       </c>
@@ -22091,7 +22057,7 @@
       </c>
       <c r="I583" s="31"/>
     </row>
-    <row r="584" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" ht="30">
       <c r="A584" s="29" t="s">
         <v>590</v>
       </c>
@@ -22116,7 +22082,7 @@
       </c>
       <c r="I584" s="31"/>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9">
       <c r="A585" s="29" t="s">
         <v>591</v>
       </c>
@@ -22141,7 +22107,7 @@
       </c>
       <c r="I585" s="31"/>
     </row>
-    <row r="586" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" ht="45">
       <c r="A586" s="29" t="s">
         <v>592</v>
       </c>
@@ -22166,7 +22132,7 @@
       </c>
       <c r="I586" s="31"/>
     </row>
-    <row r="587" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" ht="30">
       <c r="A587" s="29" t="s">
         <v>593</v>
       </c>
@@ -22191,7 +22157,7 @@
       </c>
       <c r="I587" s="31"/>
     </row>
-    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" ht="30">
       <c r="A588" s="29" t="s">
         <v>594</v>
       </c>
@@ -22216,7 +22182,7 @@
       </c>
       <c r="I588" s="31"/>
     </row>
-    <row r="589" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" ht="30">
       <c r="A589" s="29" t="s">
         <v>595</v>
       </c>
@@ -22241,7 +22207,7 @@
       </c>
       <c r="I589" s="31"/>
     </row>
-    <row r="590" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" ht="30">
       <c r="A590" s="29" t="s">
         <v>596</v>
       </c>
@@ -22266,7 +22232,7 @@
       </c>
       <c r="I590" s="31"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" ht="30">
       <c r="A591" s="29" t="s">
         <v>597</v>
       </c>
@@ -22291,7 +22257,7 @@
       </c>
       <c r="I591" s="31"/>
     </row>
-    <row r="592" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="45">
       <c r="A592" s="29" t="s">
         <v>598</v>
       </c>
@@ -22316,7 +22282,7 @@
       </c>
       <c r="I592" s="31"/>
     </row>
-    <row r="593" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" ht="45">
       <c r="A593" s="29" t="s">
         <v>599</v>
       </c>
@@ -22341,7 +22307,7 @@
       </c>
       <c r="I593" s="31"/>
     </row>
-    <row r="594" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" ht="45">
       <c r="A594" s="29" t="s">
         <v>600</v>
       </c>
@@ -22368,7 +22334,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" ht="60">
       <c r="A595" s="29" t="s">
         <v>601</v>
       </c>
@@ -22393,7 +22359,7 @@
       </c>
       <c r="I595" s="31"/>
     </row>
-    <row r="596" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" ht="75">
       <c r="A596" s="29" t="s">
         <v>602</v>
       </c>
@@ -22418,7 +22384,7 @@
       </c>
       <c r="I596" s="31"/>
     </row>
-    <row r="597" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" ht="75">
       <c r="A597" s="29" t="s">
         <v>603</v>
       </c>
@@ -22426,7 +22392,7 @@
         <v>890</v>
       </c>
       <c r="C597" s="20" t="s">
-        <v>1876</v>
+        <v>1840</v>
       </c>
       <c r="D597" s="29"/>
       <c r="E597" s="29" t="s">
@@ -22443,7 +22409,7 @@
       </c>
       <c r="I597" s="31"/>
     </row>
-    <row r="598" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" ht="45">
       <c r="A598" s="29" t="s">
         <v>604</v>
       </c>
@@ -22470,7 +22436,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" ht="60">
       <c r="A599" s="29" t="s">
         <v>605</v>
       </c>
@@ -22495,7 +22461,7 @@
       </c>
       <c r="I599" s="31"/>
     </row>
-    <row r="600" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" ht="45">
       <c r="A600" s="29" t="s">
         <v>606</v>
       </c>
@@ -22520,7 +22486,7 @@
       </c>
       <c r="I600" s="20"/>
     </row>
-    <row r="601" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" ht="45">
       <c r="A601" s="29" t="s">
         <v>607</v>
       </c>
@@ -22545,7 +22511,7 @@
       </c>
       <c r="I601" s="31"/>
     </row>
-    <row r="602" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" ht="90">
       <c r="A602" s="29" t="s">
         <v>608</v>
       </c>
@@ -22570,7 +22536,7 @@
       </c>
       <c r="I602" s="31"/>
     </row>
-    <row r="603" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" ht="105">
       <c r="A603" s="29" t="s">
         <v>609</v>
       </c>
@@ -22597,7 +22563,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="60">
       <c r="A604" s="29" t="s">
         <v>610</v>
       </c>
@@ -22622,7 +22588,7 @@
       </c>
       <c r="I604" s="31"/>
     </row>
-    <row r="605" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" ht="60">
       <c r="A605" s="29" t="s">
         <v>611</v>
       </c>
@@ -22647,7 +22613,7 @@
       </c>
       <c r="I605" s="31"/>
     </row>
-    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="45">
       <c r="A606" s="29" t="s">
         <v>612</v>
       </c>
@@ -22655,7 +22621,7 @@
         <v>892</v>
       </c>
       <c r="C606" s="20" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D606" s="29"/>
       <c r="E606" s="29" t="s">
@@ -22674,7 +22640,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="75">
       <c r="A607" s="29" t="s">
         <v>613</v>
       </c>
@@ -22701,7 +22667,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" ht="75">
       <c r="A608" s="29" t="s">
         <v>614</v>
       </c>
@@ -22726,7 +22692,7 @@
       </c>
       <c r="I608" s="31"/>
     </row>
-    <row r="609" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" ht="60">
       <c r="A609" s="29" t="s">
         <v>615</v>
       </c>
@@ -22751,7 +22717,7 @@
       </c>
       <c r="I609" s="31"/>
     </row>
-    <row r="610" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" ht="45">
       <c r="A610" s="29" t="s">
         <v>616</v>
       </c>
@@ -22776,7 +22742,7 @@
       </c>
       <c r="I610" s="31"/>
     </row>
-    <row r="611" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" ht="45">
       <c r="A611" s="29" t="s">
         <v>617</v>
       </c>
@@ -22801,7 +22767,7 @@
       </c>
       <c r="I611" s="31"/>
     </row>
-    <row r="612" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" ht="60">
       <c r="A612" s="29" t="s">
         <v>618</v>
       </c>
@@ -22809,7 +22775,7 @@
         <v>892</v>
       </c>
       <c r="C612" s="20" t="s">
-        <v>1877</v>
+        <v>1841</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -22826,7 +22792,7 @@
       </c>
       <c r="I612" s="31"/>
     </row>
-    <row r="613" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" ht="90">
       <c r="A613" s="29" t="s">
         <v>619</v>
       </c>
@@ -22851,7 +22817,7 @@
       </c>
       <c r="I613" s="31"/>
     </row>
-    <row r="614" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" ht="75">
       <c r="A614" s="29" t="s">
         <v>620</v>
       </c>
@@ -22876,7 +22842,7 @@
       </c>
       <c r="I614" s="31"/>
     </row>
-    <row r="615" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" ht="90">
       <c r="A615" s="29" t="s">
         <v>621</v>
       </c>
@@ -22901,7 +22867,7 @@
       </c>
       <c r="I615" s="31"/>
     </row>
-    <row r="616" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" ht="90">
       <c r="A616" s="29" t="s">
         <v>622</v>
       </c>
@@ -22928,7 +22894,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="617" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" ht="90">
       <c r="A617" s="29" t="s">
         <v>623</v>
       </c>
@@ -22955,7 +22921,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" ht="75">
       <c r="A618" s="29" t="s">
         <v>624</v>
       </c>
@@ -22982,7 +22948,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" ht="90">
       <c r="A619" s="29" t="s">
         <v>625</v>
       </c>
@@ -23007,7 +22973,7 @@
       </c>
       <c r="I619" s="31"/>
     </row>
-    <row r="620" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" ht="75">
       <c r="A620" s="29" t="s">
         <v>626</v>
       </c>
@@ -23032,7 +22998,7 @@
       </c>
       <c r="I620" s="31"/>
     </row>
-    <row r="621" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" ht="105">
       <c r="A621" s="22" t="s">
         <v>627</v>
       </c>
@@ -23059,7 +23025,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" ht="60">
       <c r="A622" s="29" t="s">
         <v>628</v>
       </c>
@@ -23086,7 +23052,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="623" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" ht="105">
       <c r="A623" s="29" t="s">
         <v>629</v>
       </c>
@@ -23111,7 +23077,7 @@
       </c>
       <c r="I623" s="20"/>
     </row>
-    <row r="624" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" ht="105">
       <c r="A624" s="29" t="s">
         <v>630</v>
       </c>
@@ -23136,7 +23102,7 @@
       </c>
       <c r="I624" s="31"/>
     </row>
-    <row r="625" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" ht="90">
       <c r="A625" s="29" t="s">
         <v>631</v>
       </c>
@@ -23163,7 +23129,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" ht="120">
       <c r="A626" s="29" t="s">
         <v>632</v>
       </c>
@@ -23171,7 +23137,7 @@
         <v>892</v>
       </c>
       <c r="C626" s="20" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D626" s="29"/>
       <c r="E626" s="29" t="s">
@@ -23188,7 +23154,7 @@
       </c>
       <c r="I626" s="31"/>
     </row>
-    <row r="627" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" ht="90">
       <c r="A627" s="29" t="s">
         <v>633</v>
       </c>
@@ -23213,7 +23179,7 @@
       </c>
       <c r="I627" s="31"/>
     </row>
-    <row r="628" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" ht="75">
       <c r="A628" s="29" t="s">
         <v>634</v>
       </c>
@@ -23238,7 +23204,7 @@
       </c>
       <c r="I628" s="31"/>
     </row>
-    <row r="629" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" ht="75">
       <c r="A629" s="29" t="s">
         <v>635</v>
       </c>
@@ -23263,7 +23229,7 @@
       </c>
       <c r="I629" s="31"/>
     </row>
-    <row r="630" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" ht="90">
       <c r="A630" s="29" t="s">
         <v>636</v>
       </c>
@@ -23288,7 +23254,7 @@
       </c>
       <c r="I630" s="31"/>
     </row>
-    <row r="631" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" ht="90">
       <c r="A631" s="29" t="s">
         <v>637</v>
       </c>
@@ -23313,7 +23279,7 @@
       </c>
       <c r="I631" s="31"/>
     </row>
-    <row r="632" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" ht="75">
       <c r="A632" s="29" t="s">
         <v>638</v>
       </c>
@@ -23321,7 +23287,7 @@
         <v>892</v>
       </c>
       <c r="C632" s="20" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D632" s="29"/>
       <c r="E632" s="29" t="s">
@@ -23340,7 +23306,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="633" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" ht="75">
       <c r="A633" s="29" t="s">
         <v>639</v>
       </c>
@@ -23365,7 +23331,7 @@
       </c>
       <c r="I633" s="31"/>
     </row>
-    <row r="634" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" ht="120">
       <c r="A634" s="29" t="s">
         <v>640</v>
       </c>
@@ -23390,7 +23356,7 @@
       </c>
       <c r="I634" s="31"/>
     </row>
-    <row r="635" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" ht="105">
       <c r="A635" s="29" t="s">
         <v>641</v>
       </c>
@@ -23415,7 +23381,7 @@
       </c>
       <c r="I635" s="31"/>
     </row>
-    <row r="636" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" ht="105">
       <c r="A636" s="29" t="s">
         <v>642</v>
       </c>
@@ -23440,7 +23406,7 @@
       </c>
       <c r="I636" s="31"/>
     </row>
-    <row r="637" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" ht="105">
       <c r="A637" s="22" t="s">
         <v>643</v>
       </c>
@@ -23465,7 +23431,7 @@
       </c>
       <c r="I637" s="31"/>
     </row>
-    <row r="638" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" ht="105">
       <c r="A638" s="29" t="s">
         <v>644</v>
       </c>
@@ -23490,7 +23456,7 @@
       </c>
       <c r="I638" s="31"/>
     </row>
-    <row r="639" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" ht="75">
       <c r="A639" s="29" t="s">
         <v>645</v>
       </c>
@@ -23515,7 +23481,7 @@
       </c>
       <c r="I639" s="31"/>
     </row>
-    <row r="640" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" ht="90">
       <c r="A640" s="22" t="s">
         <v>646</v>
       </c>
@@ -23523,7 +23489,7 @@
         <v>892</v>
       </c>
       <c r="C640" s="20" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D640" s="29"/>
       <c r="E640" s="29" t="s">
@@ -23542,7 +23508,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" ht="75">
       <c r="A641" s="22" t="s">
         <v>647</v>
       </c>
@@ -23550,7 +23516,7 @@
         <v>892</v>
       </c>
       <c r="C641" s="20" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D641" s="29"/>
       <c r="E641" s="29" t="s">
@@ -23569,7 +23535,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="642" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" ht="75">
       <c r="A642" s="29" t="s">
         <v>648</v>
       </c>
@@ -23594,7 +23560,7 @@
       </c>
       <c r="I642" s="31"/>
     </row>
-    <row r="643" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" ht="60">
       <c r="A643" s="29" t="s">
         <v>649</v>
       </c>
@@ -23619,7 +23585,7 @@
       </c>
       <c r="I643" s="31"/>
     </row>
-    <row r="644" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" ht="75">
       <c r="A644" s="29" t="s">
         <v>650</v>
       </c>
@@ -23644,7 +23610,7 @@
       </c>
       <c r="I644" s="31"/>
     </row>
-    <row r="645" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" ht="90">
       <c r="A645" s="29" t="s">
         <v>651</v>
       </c>
@@ -23652,7 +23618,7 @@
         <v>892</v>
       </c>
       <c r="C645" s="20" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="D645" s="29"/>
       <c r="E645" s="29" t="s">
@@ -23669,7 +23635,7 @@
       </c>
       <c r="I645" s="31"/>
     </row>
-    <row r="646" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" ht="60">
       <c r="A646" s="29" t="s">
         <v>652</v>
       </c>
@@ -23696,7 +23662,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="647" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" ht="45">
       <c r="A647" s="29" t="s">
         <v>653</v>
       </c>
@@ -23721,7 +23687,7 @@
       </c>
       <c r="I647" s="31"/>
     </row>
-    <row r="648" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" ht="45">
       <c r="A648" s="22" t="s">
         <v>1534</v>
       </c>
@@ -23729,7 +23695,7 @@
         <v>893</v>
       </c>
       <c r="C648" s="20" t="s">
-        <v>1879</v>
+        <v>1842</v>
       </c>
       <c r="D648" s="29"/>
       <c r="E648" s="29" t="s">
@@ -23746,7 +23712,7 @@
       </c>
       <c r="I648" s="20"/>
     </row>
-    <row r="649" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" ht="45">
       <c r="A649" s="29" t="s">
         <v>654</v>
       </c>
@@ -23754,7 +23720,7 @@
         <v>893</v>
       </c>
       <c r="C649" s="20" t="s">
-        <v>1879</v>
+        <v>1842</v>
       </c>
       <c r="D649" s="29"/>
       <c r="E649" s="29" t="s">
@@ -23771,7 +23737,7 @@
       </c>
       <c r="I649" s="31"/>
     </row>
-    <row r="650" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" ht="75">
       <c r="A650" s="29" t="s">
         <v>655</v>
       </c>
@@ -23798,7 +23764,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" ht="45">
       <c r="A651" s="22" t="s">
         <v>656</v>
       </c>
@@ -23806,7 +23772,7 @@
         <v>893</v>
       </c>
       <c r="C651" s="20" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="29" t="s">
@@ -23825,7 +23791,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="652" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" ht="60">
       <c r="A652" s="29" t="s">
         <v>657</v>
       </c>
@@ -23850,7 +23816,7 @@
       </c>
       <c r="I652" s="31"/>
     </row>
-    <row r="653" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" ht="30">
       <c r="A653" s="29" t="s">
         <v>658</v>
       </c>
@@ -23875,7 +23841,7 @@
       </c>
       <c r="I653" s="31"/>
     </row>
-    <row r="654" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" ht="90">
       <c r="A654" s="29" t="s">
         <v>659</v>
       </c>
@@ -23900,7 +23866,7 @@
       </c>
       <c r="I654" s="31"/>
     </row>
-    <row r="655" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" ht="45">
       <c r="A655" s="29" t="s">
         <v>660</v>
       </c>
@@ -23925,7 +23891,7 @@
       </c>
       <c r="I655" s="31"/>
     </row>
-    <row r="656" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" ht="45">
       <c r="A656" s="29" t="s">
         <v>661</v>
       </c>
@@ -23950,7 +23916,7 @@
       </c>
       <c r="I656" s="31"/>
     </row>
-    <row r="657" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" ht="60">
       <c r="A657" s="29" t="s">
         <v>662</v>
       </c>
@@ -23975,7 +23941,7 @@
       </c>
       <c r="I657" s="31"/>
     </row>
-    <row r="658" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" ht="30">
       <c r="A658" s="29" t="s">
         <v>663</v>
       </c>
@@ -24000,7 +23966,7 @@
       </c>
       <c r="I658" s="31"/>
     </row>
-    <row r="659" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" ht="45">
       <c r="A659" s="29" t="s">
         <v>664</v>
       </c>
@@ -24025,7 +23991,7 @@
       </c>
       <c r="I659" s="31"/>
     </row>
-    <row r="660" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" ht="30">
       <c r="A660" s="29" t="s">
         <v>665</v>
       </c>
@@ -24050,7 +24016,7 @@
       </c>
       <c r="I660" s="31"/>
     </row>
-    <row r="661" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" ht="45">
       <c r="A661" s="29" t="s">
         <v>666</v>
       </c>
@@ -24077,7 +24043,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="662" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" ht="60">
       <c r="A662" s="29" t="s">
         <v>667</v>
       </c>
@@ -24104,7 +24070,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" ht="30">
       <c r="A663" s="29" t="s">
         <v>668</v>
       </c>
@@ -24129,7 +24095,7 @@
       </c>
       <c r="I663" s="31"/>
     </row>
-    <row r="664" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" ht="45">
       <c r="A664" s="29" t="s">
         <v>669</v>
       </c>
@@ -24156,7 +24122,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="665" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" ht="45">
       <c r="A665" s="22" t="s">
         <v>670</v>
       </c>
@@ -24183,7 +24149,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" ht="45">
       <c r="A666" s="29" t="s">
         <v>671</v>
       </c>
@@ -24208,7 +24174,7 @@
       </c>
       <c r="I666" s="31"/>
     </row>
-    <row r="667" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" ht="45">
       <c r="A667" s="29" t="s">
         <v>672</v>
       </c>
@@ -24233,7 +24199,7 @@
       </c>
       <c r="I667" s="31"/>
     </row>
-    <row r="668" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" ht="30">
       <c r="A668" s="29" t="s">
         <v>673</v>
       </c>
@@ -24258,7 +24224,7 @@
       </c>
       <c r="I668" s="31"/>
     </row>
-    <row r="669" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" ht="60">
       <c r="A669" s="29" t="s">
         <v>674</v>
       </c>
@@ -24285,7 +24251,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" ht="45">
       <c r="A670" s="29" t="s">
         <v>675</v>
       </c>
@@ -24310,7 +24276,7 @@
       </c>
       <c r="I670" s="31"/>
     </row>
-    <row r="671" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" ht="75">
       <c r="A671" s="29" t="s">
         <v>676</v>
       </c>
@@ -24337,7 +24303,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" ht="60">
       <c r="A672" s="29" t="s">
         <v>677</v>
       </c>
@@ -24364,7 +24330,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" ht="75">
       <c r="A673" s="29" t="s">
         <v>678</v>
       </c>
@@ -24389,7 +24355,7 @@
       </c>
       <c r="I673" s="31"/>
     </row>
-    <row r="674" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" ht="45">
       <c r="A674" s="29" t="s">
         <v>679</v>
       </c>
@@ -24414,7 +24380,7 @@
       </c>
       <c r="I674" s="31"/>
     </row>
-    <row r="675" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" ht="30">
       <c r="A675" s="29" t="s">
         <v>680</v>
       </c>
@@ -24439,7 +24405,7 @@
       </c>
       <c r="I675" s="31"/>
     </row>
-    <row r="676" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" ht="45">
       <c r="A676" s="22" t="s">
         <v>681</v>
       </c>
@@ -24447,7 +24413,7 @@
         <v>897</v>
       </c>
       <c r="C676" s="20" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D676" s="29"/>
       <c r="E676" s="29" t="s">
@@ -24464,7 +24430,7 @@
       </c>
       <c r="I676" s="31"/>
     </row>
-    <row r="677" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" ht="60">
       <c r="A677" s="29" t="s">
         <v>682</v>
       </c>
@@ -24489,7 +24455,7 @@
       </c>
       <c r="I677" s="31"/>
     </row>
-    <row r="678" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" ht="45">
       <c r="A678" s="22" t="s">
         <v>683</v>
       </c>
@@ -24497,7 +24463,7 @@
         <v>897</v>
       </c>
       <c r="C678" s="20" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D678" s="29"/>
       <c r="E678" s="29" t="s">
@@ -24514,7 +24480,7 @@
       </c>
       <c r="I678" s="31"/>
     </row>
-    <row r="679" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" ht="45">
       <c r="A679" s="29" t="s">
         <v>684</v>
       </c>
@@ -24541,7 +24507,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" ht="45">
       <c r="A680" s="29" t="s">
         <v>685</v>
       </c>
@@ -24568,7 +24534,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" ht="45">
       <c r="A681" s="29" t="s">
         <v>686</v>
       </c>
@@ -24595,7 +24561,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" ht="60">
       <c r="A682" s="29" t="s">
         <v>687</v>
       </c>
@@ -24622,7 +24588,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" ht="30">
       <c r="A683" s="29" t="s">
         <v>688</v>
       </c>
@@ -24647,7 +24613,7 @@
       </c>
       <c r="I683" s="31"/>
     </row>
-    <row r="684" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" ht="45">
       <c r="A684" s="29" t="s">
         <v>689</v>
       </c>
@@ -24672,7 +24638,7 @@
       </c>
       <c r="I684" s="31"/>
     </row>
-    <row r="685" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" ht="30">
       <c r="A685" s="29" t="s">
         <v>690</v>
       </c>
@@ -24697,7 +24663,7 @@
       </c>
       <c r="I685" s="31"/>
     </row>
-    <row r="686" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" ht="45">
       <c r="A686" s="29" t="s">
         <v>691</v>
       </c>
@@ -24722,7 +24688,7 @@
       </c>
       <c r="I686" s="31"/>
     </row>
-    <row r="687" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" ht="30">
       <c r="A687" s="29" t="s">
         <v>692</v>
       </c>
@@ -24747,7 +24713,7 @@
       </c>
       <c r="I687" s="31"/>
     </row>
-    <row r="688" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" ht="45">
       <c r="A688" s="29" t="s">
         <v>693</v>
       </c>
@@ -24772,7 +24738,7 @@
       </c>
       <c r="I688" s="31"/>
     </row>
-    <row r="689" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" ht="75">
       <c r="A689" s="29" t="s">
         <v>694</v>
       </c>
@@ -24799,7 +24765,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" ht="60">
       <c r="A690" s="29" t="s">
         <v>695</v>
       </c>
@@ -24826,7 +24792,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" ht="30">
       <c r="A691" s="29" t="s">
         <v>696</v>
       </c>
@@ -24851,7 +24817,7 @@
       </c>
       <c r="I691" s="31"/>
     </row>
-    <row r="692" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" ht="60">
       <c r="A692" s="29" t="s">
         <v>697</v>
       </c>
@@ -24876,7 +24842,7 @@
       </c>
       <c r="I692" s="31"/>
     </row>
-    <row r="693" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" ht="60">
       <c r="A693" s="29" t="s">
         <v>698</v>
       </c>
@@ -24901,7 +24867,7 @@
       </c>
       <c r="I693" s="31"/>
     </row>
-    <row r="694" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" ht="30">
       <c r="A694" s="29" t="s">
         <v>699</v>
       </c>
@@ -24926,7 +24892,7 @@
       </c>
       <c r="I694" s="31"/>
     </row>
-    <row r="695" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" ht="30">
       <c r="A695" s="29" t="s">
         <v>700</v>
       </c>
@@ -24951,7 +24917,7 @@
       </c>
       <c r="I695" s="31"/>
     </row>
-    <row r="696" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" ht="60">
       <c r="A696" s="29" t="s">
         <v>701</v>
       </c>
@@ -24959,7 +24925,7 @@
         <v>898</v>
       </c>
       <c r="C696" s="20" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D696" s="29"/>
       <c r="E696" s="29" t="s">
@@ -24978,7 +24944,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" ht="75">
       <c r="A697" s="29" t="s">
         <v>702</v>
       </c>
@@ -25005,7 +24971,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="698" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" ht="60">
       <c r="A698" s="29" t="s">
         <v>703</v>
       </c>
@@ -25030,7 +24996,7 @@
       </c>
       <c r="I698" s="31"/>
     </row>
-    <row r="699" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" ht="30">
       <c r="A699" s="29" t="s">
         <v>704</v>
       </c>
@@ -25055,7 +25021,7 @@
       </c>
       <c r="I699" s="31"/>
     </row>
-    <row r="700" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" ht="60">
       <c r="A700" s="29" t="s">
         <v>705</v>
       </c>
@@ -25080,7 +25046,7 @@
       </c>
       <c r="I700" s="31"/>
     </row>
-    <row r="701" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" ht="90">
       <c r="A701" s="29" t="s">
         <v>706</v>
       </c>
@@ -25105,7 +25071,7 @@
       </c>
       <c r="I701" s="31"/>
     </row>
-    <row r="702" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" ht="75">
       <c r="A702" s="29" t="s">
         <v>707</v>
       </c>
@@ -25130,7 +25096,7 @@
       </c>
       <c r="I702" s="31"/>
     </row>
-    <row r="703" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" ht="45">
       <c r="A703" s="29" t="s">
         <v>708</v>
       </c>
@@ -25155,7 +25121,7 @@
       </c>
       <c r="I703" s="31"/>
     </row>
-    <row r="704" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" ht="105">
       <c r="A704" s="29" t="s">
         <v>709</v>
       </c>
@@ -25180,7 +25146,7 @@
       </c>
       <c r="I704" s="31"/>
     </row>
-    <row r="705" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" ht="60">
       <c r="A705" s="22" t="s">
         <v>710</v>
       </c>
@@ -25205,7 +25171,7 @@
       </c>
       <c r="I705" s="31"/>
     </row>
-    <row r="706" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" ht="45">
       <c r="A706" s="29" t="s">
         <v>711</v>
       </c>
@@ -25234,7 +25200,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="707" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" ht="45">
       <c r="A707" s="29" t="s">
         <v>712</v>
       </c>
@@ -25263,7 +25229,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" ht="45">
       <c r="A708" s="29" t="s">
         <v>713</v>
       </c>
@@ -25292,7 +25258,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="709" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" ht="45">
       <c r="A709" s="29" t="s">
         <v>714</v>
       </c>
@@ -25321,7 +25287,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" ht="105">
       <c r="A710" s="29" t="s">
         <v>715</v>
       </c>
@@ -25350,7 +25316,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="711" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" ht="105">
       <c r="A711" s="29" t="s">
         <v>716</v>
       </c>
@@ -25379,7 +25345,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" ht="75">
       <c r="A712" s="29" t="s">
         <v>717</v>
       </c>
@@ -25408,7 +25374,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="713" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" ht="45">
       <c r="A713" s="29" t="s">
         <v>718</v>
       </c>
@@ -25437,7 +25403,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="714" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" ht="75">
       <c r="A714" s="29" t="s">
         <v>719</v>
       </c>
@@ -25466,7 +25432,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="715" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" ht="75">
       <c r="A715" s="29" t="s">
         <v>720</v>
       </c>
@@ -25495,7 +25461,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" ht="60">
       <c r="A716" s="29" t="s">
         <v>721</v>
       </c>
@@ -25522,7 +25488,7 @@
       </c>
       <c r="I716" s="31"/>
     </row>
-    <row r="717" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" ht="45">
       <c r="A717" s="22" t="s">
         <v>1783</v>
       </c>
@@ -25549,7 +25515,7 @@
       </c>
       <c r="I717" s="20"/>
     </row>
-    <row r="718" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" ht="30">
       <c r="A718" s="29" t="s">
         <v>722</v>
       </c>
@@ -25574,7 +25540,7 @@
       </c>
       <c r="I718" s="31"/>
     </row>
-    <row r="719" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" ht="60">
       <c r="A719" s="29" t="s">
         <v>723</v>
       </c>
@@ -25603,7 +25569,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="720" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" ht="60">
       <c r="A720" s="29" t="s">
         <v>724</v>
       </c>
@@ -25632,7 +25598,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="721" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" ht="75">
       <c r="A721" s="22" t="s">
         <v>1655</v>
       </c>
@@ -25661,7 +25627,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="722" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" ht="60">
       <c r="A722" s="22" t="s">
         <v>1790</v>
       </c>
@@ -25690,7 +25656,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="723" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" ht="75">
       <c r="A723" s="29" t="s">
         <v>725</v>
       </c>
@@ -25719,7 +25685,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="724" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" ht="45">
       <c r="A724" s="29" t="s">
         <v>726</v>
       </c>
@@ -25746,7 +25712,7 @@
       </c>
       <c r="I724" s="31"/>
     </row>
-    <row r="725" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" ht="60">
       <c r="A725" s="29" t="s">
         <v>727</v>
       </c>
@@ -25775,7 +25741,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="726" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" ht="60">
       <c r="A726" s="29" t="s">
         <v>728</v>
       </c>
@@ -25800,7 +25766,7 @@
       </c>
       <c r="I726" s="31"/>
     </row>
-    <row r="727" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" ht="60">
       <c r="A727" s="29" t="s">
         <v>729</v>
       </c>
@@ -25829,7 +25795,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="728" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" ht="60">
       <c r="A728" s="29" t="s">
         <v>730</v>
       </c>
@@ -25858,7 +25824,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" ht="45">
       <c r="A729" s="29" t="s">
         <v>731</v>
       </c>
@@ -25885,7 +25851,7 @@
       </c>
       <c r="I729" s="31"/>
     </row>
-    <row r="730" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" ht="390">
       <c r="A730" s="29" t="s">
         <v>732</v>
       </c>
@@ -25893,7 +25859,7 @@
         <v>900</v>
       </c>
       <c r="C730" s="20" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D730" s="29"/>
       <c r="E730" s="29" t="s">
@@ -25910,7 +25876,7 @@
       </c>
       <c r="I730" s="31"/>
     </row>
-    <row r="731" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" ht="60">
       <c r="A731" s="29" t="s">
         <v>733</v>
       </c>
@@ -25939,7 +25905,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" ht="60">
       <c r="A732" s="29" t="s">
         <v>734</v>
       </c>
@@ -25968,7 +25934,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="733" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" ht="60">
       <c r="A733" s="29" t="s">
         <v>735</v>
       </c>
@@ -25976,7 +25942,7 @@
         <v>900</v>
       </c>
       <c r="C733" s="20" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D733" s="29"/>
       <c r="E733" s="29" t="s">
@@ -25993,7 +25959,7 @@
       </c>
       <c r="I733" s="31"/>
     </row>
-    <row r="734" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" ht="60">
       <c r="A734" s="29" t="s">
         <v>736</v>
       </c>
@@ -26022,7 +25988,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" ht="45">
       <c r="A735" s="29" t="s">
         <v>737</v>
       </c>
@@ -26051,7 +26017,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="736" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" ht="75">
       <c r="A736" s="22" t="s">
         <v>1739</v>
       </c>
@@ -26059,7 +26025,7 @@
         <v>900</v>
       </c>
       <c r="C736" s="20" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D736" s="22" t="s">
         <v>1738</v>
@@ -26080,7 +26046,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="737" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" ht="60">
       <c r="A737" s="22" t="s">
         <v>1740</v>
       </c>
@@ -26107,7 +26073,7 @@
       </c>
       <c r="I737" s="31"/>
     </row>
-    <row r="738" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" ht="60">
       <c r="A738" s="29" t="s">
         <v>739</v>
       </c>
@@ -26115,7 +26081,7 @@
         <v>900</v>
       </c>
       <c r="C738" s="20" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D738" s="29" t="s">
         <v>1416</v>
@@ -26136,7 +26102,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="739" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" ht="75">
       <c r="A739" s="22" t="s">
         <v>1537</v>
       </c>
@@ -26165,7 +26131,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="740" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" ht="45">
       <c r="A740" s="22" t="s">
         <v>738</v>
       </c>
@@ -26173,7 +26139,7 @@
         <v>900</v>
       </c>
       <c r="C740" s="20" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D740" s="22" t="s">
         <v>1421</v>
@@ -26194,7 +26160,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="741" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" ht="60">
       <c r="A741" s="22" t="s">
         <v>1536</v>
       </c>
@@ -26202,7 +26168,7 @@
         <v>900</v>
       </c>
       <c r="C741" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D741" s="29" t="s">
         <v>1421</v>
@@ -26223,7 +26189,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="742" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" ht="90">
       <c r="A742" s="29" t="s">
         <v>740</v>
       </c>
@@ -26231,7 +26197,7 @@
         <v>900</v>
       </c>
       <c r="C742" s="20" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D742" s="29" t="s">
         <v>1422</v>
@@ -26250,7 +26216,7 @@
       </c>
       <c r="I742" s="31"/>
     </row>
-    <row r="743" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" ht="60">
       <c r="A743" s="29" t="s">
         <v>741</v>
       </c>
@@ -26279,7 +26245,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="744" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" ht="60">
       <c r="A744" s="35" t="s">
         <v>1744</v>
       </c>
@@ -26287,7 +26253,7 @@
         <v>900</v>
       </c>
       <c r="C744" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D744" s="22" t="s">
         <v>1743</v>
@@ -26306,7 +26272,7 @@
       </c>
       <c r="I744" s="31"/>
     </row>
-    <row r="745" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" ht="75">
       <c r="A745" s="22" t="s">
         <v>1745</v>
       </c>
@@ -26335,7 +26301,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" ht="60">
       <c r="A746" s="22" t="s">
         <v>1750</v>
       </c>
@@ -26343,7 +26309,7 @@
         <v>900</v>
       </c>
       <c r="C746" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D746" s="22" t="s">
         <v>1749</v>
@@ -26362,7 +26328,7 @@
       </c>
       <c r="I746" s="31"/>
     </row>
-    <row r="747" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" ht="60">
       <c r="A747" s="22" t="s">
         <v>1751</v>
       </c>
@@ -26391,7 +26357,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" ht="60">
       <c r="A748" s="35" t="s">
         <v>1757</v>
       </c>
@@ -26399,7 +26365,7 @@
         <v>900</v>
       </c>
       <c r="C748" s="20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D748" s="22" t="s">
         <v>1756</v>
@@ -26418,7 +26384,7 @@
       </c>
       <c r="I748" s="31"/>
     </row>
-    <row r="749" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" ht="45">
       <c r="A749" s="22" t="s">
         <v>1758</v>
       </c>
@@ -26447,7 +26413,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" ht="45">
       <c r="A750" s="22" t="s">
         <v>1762</v>
       </c>
@@ -26476,7 +26442,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" ht="180">
       <c r="A751" s="29" t="s">
         <v>742</v>
       </c>
@@ -26501,7 +26467,7 @@
       </c>
       <c r="I751" s="31"/>
     </row>
-    <row r="752" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" ht="30">
       <c r="A752" s="29" t="s">
         <v>743</v>
       </c>
@@ -26509,7 +26475,7 @@
         <v>900</v>
       </c>
       <c r="C752" s="20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D752" s="22" t="s">
         <v>1423</v>
@@ -26528,7 +26494,7 @@
       </c>
       <c r="I752" s="31"/>
     </row>
-    <row r="753" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" ht="75">
       <c r="A753" s="29" t="s">
         <v>744</v>
       </c>
@@ -26536,7 +26502,7 @@
         <v>900</v>
       </c>
       <c r="C753" s="20" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D753" s="29" t="s">
         <v>1423</v>
@@ -26555,7 +26521,7 @@
       </c>
       <c r="I753" s="31"/>
     </row>
-    <row r="754" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" ht="90">
       <c r="A754" s="29" t="s">
         <v>745</v>
       </c>
@@ -26563,7 +26529,7 @@
         <v>900</v>
       </c>
       <c r="C754" s="20" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D754" s="29" t="s">
         <v>1423</v>
@@ -26584,7 +26550,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="755" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" ht="45">
       <c r="A755" s="29" t="s">
         <v>746</v>
       </c>
@@ -26592,7 +26558,7 @@
         <v>900</v>
       </c>
       <c r="C755" s="20" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D755" s="29"/>
       <c r="E755" s="29" t="s">
@@ -26609,7 +26575,7 @@
       </c>
       <c r="I755" s="31"/>
     </row>
-    <row r="756" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" ht="60">
       <c r="A756" s="29" t="s">
         <v>747</v>
       </c>
@@ -26617,7 +26583,7 @@
         <v>900</v>
       </c>
       <c r="C756" s="20" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D756" s="29" t="s">
         <v>1424</v>
@@ -26638,7 +26604,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="757" spans="1:9" s="40" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" s="40" customFormat="1" ht="47.25">
       <c r="A757" s="37" t="s">
         <v>748</v>
       </c>
@@ -26667,7 +26633,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="758" spans="1:9" s="40" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" s="40" customFormat="1" ht="78.75">
       <c r="A758" s="37" t="s">
         <v>1767</v>
       </c>
@@ -26675,7 +26641,7 @@
         <v>900</v>
       </c>
       <c r="C758" s="39" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D758" s="37" t="s">
         <v>1766</v>
@@ -26694,7 +26660,7 @@
       </c>
       <c r="I758" s="39"/>
     </row>
-    <row r="759" spans="1:9" s="40" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" s="40" customFormat="1" ht="63">
       <c r="A759" s="37" t="s">
         <v>1768</v>
       </c>
@@ -26723,7 +26689,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="760" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" ht="63">
       <c r="A760" s="35" t="s">
         <v>1772</v>
       </c>
@@ -26731,7 +26697,7 @@
         <v>900</v>
       </c>
       <c r="C760" s="39" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D760" s="22" t="s">
         <v>1771</v>
@@ -26750,7 +26716,7 @@
       </c>
       <c r="I760" s="39"/>
     </row>
-    <row r="761" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" ht="47.25">
       <c r="A761" s="22" t="s">
         <v>1773</v>
       </c>
@@ -26779,7 +26745,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="762" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" ht="63">
       <c r="A762" s="22" t="s">
         <v>1775</v>
       </c>
@@ -26787,7 +26753,7 @@
         <v>900</v>
       </c>
       <c r="C762" s="39" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D762" s="22" t="s">
         <v>1774</v>
@@ -26806,7 +26772,7 @@
       </c>
       <c r="I762" s="39"/>
     </row>
-    <row r="763" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" ht="47.25">
       <c r="A763" s="22" t="s">
         <v>1776</v>
       </c>
@@ -26835,7 +26801,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="764" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" ht="141.75">
       <c r="A764" s="22" t="s">
         <v>1780</v>
       </c>
@@ -26843,7 +26809,7 @@
         <v>900</v>
       </c>
       <c r="C764" s="39" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D764" s="22"/>
       <c r="E764" s="37" t="s">
@@ -26860,7 +26826,7 @@
       </c>
       <c r="I764" s="39"/>
     </row>
-    <row r="765" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" ht="47.25">
       <c r="A765" s="22" t="s">
         <v>1781</v>
       </c>
@@ -26868,7 +26834,7 @@
         <v>900</v>
       </c>
       <c r="C765" s="39" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D765" s="22"/>
       <c r="E765" s="37" t="s">
@@ -26885,7 +26851,7 @@
       </c>
       <c r="I765" s="39"/>
     </row>
-    <row r="766" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" ht="75">
       <c r="A766" s="29" t="s">
         <v>749</v>
       </c>
@@ -26893,7 +26859,7 @@
         <v>900</v>
       </c>
       <c r="C766" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D766" s="29" t="s">
         <v>1425</v>
@@ -26914,7 +26880,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="767" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" ht="60">
       <c r="A767" s="29" t="s">
         <v>750</v>
       </c>
@@ -26943,7 +26909,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" ht="45">
       <c r="A768" s="29" t="s">
         <v>751</v>
       </c>
@@ -26970,7 +26936,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9">
       <c r="A769" s="29" t="s">
         <v>752</v>
       </c>
@@ -26995,7 +26961,7 @@
       </c>
       <c r="I769" s="31"/>
     </row>
-    <row r="770" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" ht="30">
       <c r="A770" s="29" t="s">
         <v>753</v>
       </c>
@@ -27020,7 +26986,7 @@
       </c>
       <c r="I770" s="31"/>
     </row>
-    <row r="771" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" ht="30">
       <c r="A771" s="29" t="s">
         <v>754</v>
       </c>
@@ -27045,7 +27011,7 @@
       </c>
       <c r="I771" s="31"/>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9">
       <c r="A772" s="29" t="s">
         <v>755</v>
       </c>
@@ -27070,7 +27036,7 @@
       </c>
       <c r="I772" s="31"/>
     </row>
-    <row r="773" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" ht="30">
       <c r="A773" s="29" t="s">
         <v>756</v>
       </c>
@@ -27095,7 +27061,7 @@
       </c>
       <c r="I773" s="31"/>
     </row>
-    <row r="774" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" ht="30">
       <c r="A774" s="29" t="s">
         <v>757</v>
       </c>
@@ -27120,7 +27086,7 @@
       </c>
       <c r="I774" s="31"/>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" ht="30">
       <c r="A775" s="29" t="s">
         <v>758</v>
       </c>
@@ -27145,7 +27111,7 @@
       </c>
       <c r="I775" s="31"/>
     </row>
-    <row r="776" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" ht="60">
       <c r="A776" s="29" t="s">
         <v>759</v>
       </c>
@@ -27170,7 +27136,7 @@
       </c>
       <c r="I776" s="31"/>
     </row>
-    <row r="777" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" ht="45">
       <c r="A777" s="29" t="s">
         <v>760</v>
       </c>
@@ -27195,7 +27161,7 @@
       </c>
       <c r="I777" s="31"/>
     </row>
-    <row r="778" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" ht="30">
       <c r="A778" s="29" t="s">
         <v>761</v>
       </c>
@@ -27220,7 +27186,7 @@
       </c>
       <c r="I778" s="31"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" ht="30">
       <c r="A779" s="29" t="s">
         <v>762</v>
       </c>
@@ -27245,7 +27211,7 @@
       </c>
       <c r="I779" s="31"/>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" ht="30">
       <c r="A780" s="29" t="s">
         <v>763</v>
       </c>
@@ -27270,7 +27236,7 @@
       </c>
       <c r="I780" s="31"/>
     </row>
-    <row r="781" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" ht="60">
       <c r="A781" s="29" t="s">
         <v>764</v>
       </c>
@@ -27295,7 +27261,7 @@
       </c>
       <c r="I781" s="31"/>
     </row>
-    <row r="782" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" ht="30">
       <c r="A782" s="29" t="s">
         <v>765</v>
       </c>
@@ -27320,7 +27286,7 @@
       </c>
       <c r="I782" s="31"/>
     </row>
-    <row r="783" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" ht="60">
       <c r="A783" s="29" t="s">
         <v>766</v>
       </c>
@@ -27345,7 +27311,7 @@
       </c>
       <c r="I783" s="31"/>
     </row>
-    <row r="784" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" ht="30">
       <c r="A784" s="29" t="s">
         <v>767</v>
       </c>
@@ -27370,7 +27336,7 @@
       </c>
       <c r="I784" s="31"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" ht="30">
       <c r="A785" s="29" t="s">
         <v>768</v>
       </c>
@@ -27395,7 +27361,7 @@
       </c>
       <c r="I785" s="31"/>
     </row>
-    <row r="786" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" ht="60">
       <c r="A786" s="29" t="s">
         <v>769</v>
       </c>
@@ -27420,7 +27386,7 @@
       </c>
       <c r="I786" s="31"/>
     </row>
-    <row r="787" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" ht="30">
       <c r="A787" s="29" t="s">
         <v>770</v>
       </c>
@@ -27445,7 +27411,7 @@
       </c>
       <c r="I787" s="31"/>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" ht="30">
       <c r="A788" s="29" t="s">
         <v>771</v>
       </c>
@@ -27470,7 +27436,7 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" ht="30">
       <c r="A789" s="29" t="s">
         <v>772</v>
       </c>
@@ -27495,7 +27461,7 @@
       </c>
       <c r="I789" s="31"/>
     </row>
-    <row r="790" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" ht="45">
       <c r="A790" s="29" t="s">
         <v>773</v>
       </c>
@@ -27520,7 +27486,7 @@
       </c>
       <c r="I790" s="31"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" ht="30">
       <c r="A791" s="29" t="s">
         <v>774</v>
       </c>
@@ -27545,7 +27511,7 @@
       </c>
       <c r="I791" s="31"/>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" ht="30">
       <c r="A792" s="29" t="s">
         <v>775</v>
       </c>
@@ -27570,7 +27536,7 @@
       </c>
       <c r="I792" s="31"/>
     </row>
-    <row r="793" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" ht="45">
       <c r="A793" s="29" t="s">
         <v>776</v>
       </c>
@@ -27595,7 +27561,7 @@
       </c>
       <c r="I793" s="31"/>
     </row>
-    <row r="794" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" ht="30">
       <c r="A794" s="29" t="s">
         <v>777</v>
       </c>
@@ -27620,7 +27586,7 @@
       </c>
       <c r="I794" s="31"/>
     </row>
-    <row r="795" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" ht="60">
       <c r="A795" s="29" t="s">
         <v>778</v>
       </c>
@@ -27645,7 +27611,7 @@
       </c>
       <c r="I795" s="31"/>
     </row>
-    <row r="796" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" ht="45">
       <c r="A796" s="29" t="s">
         <v>779</v>
       </c>
@@ -27670,7 +27636,7 @@
       </c>
       <c r="I796" s="31"/>
     </row>
-    <row r="797" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" ht="30">
       <c r="A797" s="29" t="s">
         <v>780</v>
       </c>
@@ -27695,7 +27661,7 @@
       </c>
       <c r="I797" s="31"/>
     </row>
-    <row r="798" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" ht="45">
       <c r="A798" s="29" t="s">
         <v>781</v>
       </c>
@@ -27720,7 +27686,7 @@
       </c>
       <c r="I798" s="31"/>
     </row>
-    <row r="799" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" ht="45">
       <c r="A799" s="29" t="s">
         <v>782</v>
       </c>
@@ -27745,7 +27711,7 @@
       </c>
       <c r="I799" s="31"/>
     </row>
-    <row r="800" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" ht="30">
       <c r="A800" s="29" t="s">
         <v>783</v>
       </c>
@@ -27770,7 +27736,7 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" ht="30">
       <c r="A801" s="29" t="s">
         <v>784</v>
       </c>
@@ -27795,7 +27761,7 @@
       </c>
       <c r="I801" s="31"/>
     </row>
-    <row r="802" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" ht="30">
       <c r="A802" s="29" t="s">
         <v>785</v>
       </c>
@@ -27820,7 +27786,7 @@
       </c>
       <c r="I802" s="31"/>
     </row>
-    <row r="803" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" ht="30">
       <c r="A803" s="29" t="s">
         <v>786</v>
       </c>
@@ -27845,7 +27811,7 @@
       </c>
       <c r="I803" s="31"/>
     </row>
-    <row r="804" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" ht="30">
       <c r="A804" s="29" t="s">
         <v>787</v>
       </c>
@@ -27870,7 +27836,7 @@
       </c>
       <c r="I804" s="31"/>
     </row>
-    <row r="805" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" ht="30">
       <c r="A805" s="29" t="s">
         <v>788</v>
       </c>
@@ -27895,7 +27861,7 @@
       </c>
       <c r="I805" s="31"/>
     </row>
-    <row r="806" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" ht="30">
       <c r="A806" s="29" t="s">
         <v>789</v>
       </c>
@@ -27920,7 +27886,7 @@
       </c>
       <c r="I806" s="31"/>
     </row>
-    <row r="807" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" ht="45">
       <c r="A807" s="29" t="s">
         <v>790</v>
       </c>
@@ -27945,7 +27911,7 @@
       </c>
       <c r="I807" s="31"/>
     </row>
-    <row r="808" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" ht="45">
       <c r="A808" s="29" t="s">
         <v>791</v>
       </c>
@@ -27970,7 +27936,7 @@
       </c>
       <c r="I808" s="31"/>
     </row>
-    <row r="809" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" ht="45">
       <c r="A809" s="29" t="s">
         <v>792</v>
       </c>
@@ -27995,7 +27961,7 @@
       </c>
       <c r="I809" s="31"/>
     </row>
-    <row r="810" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" ht="60">
       <c r="A810" s="29" t="s">
         <v>793</v>
       </c>
@@ -28020,7 +27986,7 @@
       </c>
       <c r="I810" s="31"/>
     </row>
-    <row r="811" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" ht="45">
       <c r="A811" s="29" t="s">
         <v>794</v>
       </c>
@@ -28045,7 +28011,7 @@
       </c>
       <c r="I811" s="31"/>
     </row>
-    <row r="812" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" ht="60">
       <c r="A812" s="29" t="s">
         <v>795</v>
       </c>
@@ -28070,7 +28036,7 @@
       </c>
       <c r="I812" s="31"/>
     </row>
-    <row r="813" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" ht="60">
       <c r="A813" s="29" t="s">
         <v>796</v>
       </c>
@@ -28095,7 +28061,7 @@
       </c>
       <c r="I813" s="31"/>
     </row>
-    <row r="814" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" ht="45">
       <c r="A814" s="29" t="s">
         <v>797</v>
       </c>
@@ -28120,7 +28086,7 @@
       </c>
       <c r="I814" s="31"/>
     </row>
-    <row r="815" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" ht="45">
       <c r="A815" s="29" t="s">
         <v>798</v>
       </c>
@@ -28145,7 +28111,7 @@
       </c>
       <c r="I815" s="20"/>
     </row>
-    <row r="816" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" ht="30.75" thickBot="1">
       <c r="A816" s="32" t="s">
         <v>1519</v>
       </c>
@@ -28170,7 +28136,7 @@
       </c>
       <c r="I816" s="31"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9">
       <c r="A817" s="29"/>
       <c r="B817" s="30"/>
       <c r="C817" s="31"/>
@@ -28181,11 +28147,11 @@
       <c r="H817" s="29"/>
       <c r="I817" s="31"/>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9">
       <c r="A818" s="3"/>
       <c r="B818" s="10"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9">
       <c r="A819" s="3"/>
       <c r="B819" s="10"/>
     </row>
@@ -28451,7 +28417,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B722:B737 B19:B200 B738:B819 C3 B202:B721" numberStoredAsText="1"/>
+    <ignoredError sqref="B722:B737 B19:B200 B738:B819 B202:B721" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
